--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 8_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 8_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11355" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -1282,14 +1282,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="49" x14ac:knownFonts="1">
     <font>
@@ -1847,9 +1847,9 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
@@ -1893,7 +1893,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1913,7 +1913,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1929,7 +1929,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1957,10 +1957,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1972,10 +1972,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1984,10 +1984,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2002,7 +2002,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2030,10 +2030,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2042,13 +2042,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2057,7 +2057,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2067,7 +2067,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2077,19 +2077,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2161,22 +2161,22 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2215,7 +2215,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2230,10 +2230,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2248,19 +2248,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2284,7 +2284,7 @@
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="39" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2293,8 +2293,8 @@
     <xf numFmtId="14" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="41" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="39" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="41" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2309,13 +2309,13 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2325,41 +2325,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2368,7 +2368,7 @@
     <xf numFmtId="9" fontId="11" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2377,25 +2377,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="45" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="45" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2410,26 +2410,26 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="39" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,7 +2444,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2453,28 +2453,28 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="45" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2483,22 +2483,22 @@
     <xf numFmtId="1" fontId="45" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="45" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="45" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="45" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="45" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="45" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="45" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="45" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="45" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2519,7 +2519,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2531,25 +2531,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2558,7 +2558,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2567,22 +2567,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2590,13 +2590,13 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="46" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="46" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2606,10 +2606,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2619,7 +2619,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2627,7 +2627,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2636,7 +2636,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2646,9 +2646,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2664,13 +2664,13 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2691,7 +2691,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2700,28 +2700,28 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2730,7 +2730,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2739,52 +2739,52 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2793,13 +2793,13 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2826,16 +2826,16 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2853,10 +2853,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2865,11 +2865,11 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2881,16 +2881,16 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2899,7 +2899,7 @@
     <xf numFmtId="14" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2909,14 +2909,14 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2924,15 +2924,15 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="36" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2966,16 +2966,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3039,46 +3039,46 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3087,13 +3087,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3102,7 +3102,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3114,10 +3114,10 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3133,7 +3133,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="23" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3147,14 +3147,14 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="23" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3175,25 +3175,49 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3204,10 +3228,7 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3216,26 +3237,17 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3243,77 +3255,131 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3321,86 +3387,62 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3408,19 +3450,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3429,38 +3459,8 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3471,18 +3471,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3492,6 +3480,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3499,109 +3514,94 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="46" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3618,16 +3618,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3639,24 +3639,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3693,13 +3702,16 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3726,18 +3738,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3747,7 +3747,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="36" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4072,12 +4072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I261"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,16 +4130,16 @@
       <c r="I3" s="380"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="502" t="s">
+      <c r="A4" s="509" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="502"/>
-      <c r="C4" s="502"/>
-      <c r="D4" s="502"/>
-      <c r="E4" s="502"/>
-      <c r="F4" s="502"/>
-      <c r="G4" s="502"/>
-      <c r="H4" s="502"/>
+      <c r="B4" s="509"/>
+      <c r="C4" s="509"/>
+      <c r="D4" s="509"/>
+      <c r="E4" s="509"/>
+      <c r="F4" s="509"/>
+      <c r="G4" s="509"/>
+      <c r="H4" s="509"/>
       <c r="I4" s="380"/>
     </row>
     <row r="5" spans="1:9" s="378" customFormat="1" x14ac:dyDescent="0.25">
@@ -4153,32 +4152,32 @@
       <c r="H5" s="377"/>
     </row>
     <row r="6" spans="1:9" s="378" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="503" t="s">
+      <c r="A6" s="498" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="507" t="s">
+      <c r="B6" s="500" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="503" t="s">
+      <c r="C6" s="498" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="505" t="s">
+      <c r="D6" s="502" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="499" t="s">
+      <c r="E6" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="499"/>
-      <c r="G6" s="499" t="s">
+      <c r="F6" s="496"/>
+      <c r="G6" s="496" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="499"/>
-    </row>
-    <row r="7" spans="1:9" s="378" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="504"/>
-      <c r="B7" s="508"/>
-      <c r="C7" s="504"/>
-      <c r="D7" s="506"/>
+      <c r="H6" s="496"/>
+    </row>
+    <row r="7" spans="1:9" s="378" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="499"/>
+      <c r="B7" s="501"/>
+      <c r="C7" s="499"/>
+      <c r="D7" s="503"/>
       <c r="E7" s="382" t="s">
         <v>80</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="383">
         <v>43974</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>3433800</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="383">
         <v>44011</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>3433800</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="383">
         <v>44039</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>886000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="383">
         <v>44045</v>
       </c>
@@ -4272,7 +4271,7 @@
       <c r="G11" s="386"/>
       <c r="H11" s="387"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="383">
         <v>44045</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="383">
         <v>44045</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>1420000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="383">
         <v>44045</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>5525000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="383">
         <v>44045</v>
       </c>
@@ -4372,7 +4371,7 @@
       </c>
       <c r="H16" s="387"/>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="383">
         <v>44046</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="383">
         <v>44046</v>
       </c>
@@ -4412,7 +4411,7 @@
       <c r="G18" s="386"/>
       <c r="H18" s="387"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="383">
         <v>44046</v>
       </c>
@@ -4432,7 +4431,7 @@
       <c r="G19" s="386"/>
       <c r="H19" s="387"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="383">
         <v>44047</v>
       </c>
@@ -4452,7 +4451,7 @@
       <c r="G20" s="386"/>
       <c r="H20" s="387"/>
     </row>
-    <row r="21" spans="1:8" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="383">
         <v>44047</v>
       </c>
@@ -4472,7 +4471,7 @@
       </c>
       <c r="H21" s="387"/>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="383">
         <v>44047</v>
       </c>
@@ -4492,7 +4491,7 @@
       </c>
       <c r="H22" s="387"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="383">
         <v>44047</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>5388000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="383">
         <v>44047</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="383">
         <v>44047</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>595000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="383">
         <v>44047</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>2966000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="383">
         <v>44047</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="383">
         <v>44047</v>
       </c>
@@ -4634,7 +4633,7 @@
       </c>
       <c r="H29" s="387"/>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="383">
         <v>44047</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="383">
         <v>44048</v>
       </c>
@@ -4674,7 +4673,7 @@
         <v>2934500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="383">
         <v>44048</v>
       </c>
@@ -4714,7 +4713,7 @@
       </c>
       <c r="H33" s="387"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="383">
         <v>44048</v>
       </c>
@@ -4734,7 +4733,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="383">
         <v>44049</v>
       </c>
@@ -4754,7 +4753,7 @@
       <c r="G35" s="386"/>
       <c r="H35" s="387"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="383">
         <v>44049</v>
       </c>
@@ -4774,7 +4773,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="383">
         <v>44049</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="383">
         <v>44050</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="383">
         <v>44051</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>1018000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="383">
         <v>44051</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>6208000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="383">
         <v>44051</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>7200001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="383">
         <v>44051</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>7490000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="383">
         <v>44053</v>
       </c>
@@ -4914,7 +4913,7 @@
       </c>
       <c r="H43" s="387"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="383">
         <v>44053</v>
       </c>
@@ -4954,7 +4953,7 @@
       </c>
       <c r="H45" s="387"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="383">
         <v>44054</v>
       </c>
@@ -4974,7 +4973,7 @@
       <c r="G46" s="386"/>
       <c r="H46" s="387"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="383">
         <v>44054</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="383">
         <v>44055</v>
       </c>
@@ -5014,7 +5013,7 @@
       <c r="G48" s="386"/>
       <c r="H48" s="387"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="383">
         <v>44055</v>
       </c>
@@ -5054,7 +5053,7 @@
       </c>
       <c r="H50" s="387"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="383">
         <v>44055</v>
       </c>
@@ -5074,7 +5073,7 @@
       </c>
       <c r="H51" s="387"/>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="383">
         <v>44055</v>
       </c>
@@ -5114,7 +5113,7 @@
       </c>
       <c r="H53" s="387"/>
     </row>
-    <row r="54" spans="1:8" s="400" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="400" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="466">
         <v>44056</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>3292200</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="383">
         <v>44056</v>
       </c>
@@ -5154,7 +5153,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="383">
         <v>44056</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="383">
         <v>44056</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="383">
         <v>44056</v>
       </c>
@@ -5214,7 +5213,7 @@
       <c r="G58" s="386"/>
       <c r="H58" s="387"/>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="383">
         <v>44056</v>
       </c>
@@ -5234,7 +5233,7 @@
       <c r="G59" s="386"/>
       <c r="H59" s="387"/>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="383">
         <v>44057</v>
       </c>
@@ -5274,7 +5273,7 @@
       </c>
       <c r="H61" s="387"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="383">
         <v>44057</v>
       </c>
@@ -5295,7 +5294,7 @@
       </c>
       <c r="H62" s="387"/>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="383">
         <v>44057</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="383">
         <v>44058</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="383">
         <v>44058</v>
       </c>
@@ -5355,7 +5354,7 @@
       </c>
       <c r="H65" s="387"/>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="383">
         <v>44059</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="383">
         <v>44060</v>
       </c>
@@ -5395,7 +5394,7 @@
       </c>
       <c r="H67" s="387"/>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="383">
         <v>44060</v>
       </c>
@@ -5415,7 +5414,7 @@
       <c r="G68" s="386"/>
       <c r="H68" s="387"/>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="383">
         <v>44060</v>
       </c>
@@ -5435,7 +5434,7 @@
       <c r="G69" s="386"/>
       <c r="H69" s="387"/>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="383">
         <v>44060</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="383">
         <v>44060</v>
       </c>
@@ -5475,7 +5474,7 @@
       </c>
       <c r="H71" s="387"/>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="383">
         <v>44060</v>
       </c>
@@ -5495,7 +5494,7 @@
       </c>
       <c r="H72" s="387"/>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="383">
         <v>44060</v>
       </c>
@@ -5515,7 +5514,7 @@
       </c>
       <c r="H73" s="387"/>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="383">
         <v>44061</v>
       </c>
@@ -5535,7 +5534,7 @@
       <c r="G74" s="386"/>
       <c r="H74" s="387"/>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="383">
         <v>44061</v>
       </c>
@@ -5555,7 +5554,7 @@
       <c r="G75" s="386"/>
       <c r="H75" s="387"/>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="383">
         <v>44061</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="383">
         <v>44061</v>
       </c>
@@ -5595,7 +5594,7 @@
       </c>
       <c r="H77" s="387"/>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="383">
         <v>44061</v>
       </c>
@@ -5615,7 +5614,7 @@
       <c r="G78" s="386"/>
       <c r="H78" s="387"/>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="383">
         <v>44062</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="383">
         <v>44062</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>3880000</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="383">
         <v>44062</v>
       </c>
@@ -5696,7 +5695,7 @@
       </c>
       <c r="H82" s="387"/>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="383">
         <v>44062</v>
       </c>
@@ -5716,7 +5715,7 @@
       </c>
       <c r="H83" s="387"/>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="383">
         <v>44062</v>
       </c>
@@ -5736,7 +5735,7 @@
         <v>980000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="383">
         <v>44063</v>
       </c>
@@ -5756,7 +5755,7 @@
       <c r="G85" s="386"/>
       <c r="H85" s="387"/>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="383">
         <v>44063</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="383">
         <v>44064</v>
       </c>
@@ -5796,7 +5795,7 @@
       </c>
       <c r="H87" s="388"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="383">
         <v>44064</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>849900</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="383">
         <v>44064</v>
       </c>
@@ -5836,7 +5835,7 @@
       <c r="G89" s="386"/>
       <c r="H89" s="388"/>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="383">
         <v>44064</v>
       </c>
@@ -5857,7 +5856,7 @@
       </c>
       <c r="H90" s="388"/>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="383">
         <v>44064</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="383">
         <v>44065</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>1014560</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="383">
         <v>44065</v>
       </c>
@@ -5937,7 +5936,7 @@
       </c>
       <c r="H94" s="388"/>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="383">
         <v>44066</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="383">
         <v>44066</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="383">
         <v>44067</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="383">
         <v>44068</v>
       </c>
@@ -6017,7 +6016,7 @@
       <c r="G98" s="386"/>
       <c r="H98" s="388"/>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="383">
         <v>44069</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>1008000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="383">
         <v>44070</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>82500000</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="383">
         <v>44070</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="383">
         <v>44070</v>
       </c>
@@ -6098,7 +6097,7 @@
       <c r="G102" s="386"/>
       <c r="H102" s="388"/>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="383">
         <v>44071</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="383">
         <v>44071</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="383">
         <v>44071</v>
       </c>
@@ -6158,7 +6157,7 @@
       <c r="G105" s="386"/>
       <c r="H105" s="388"/>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="383">
         <v>44073</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>1736000</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="383">
         <v>44073</v>
       </c>
@@ -6198,7 +6197,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="383">
         <v>44073</v>
       </c>
@@ -6218,7 +6217,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="383">
         <v>44074</v>
       </c>
@@ -6279,13 +6278,13 @@
         <v>980000</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="390" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="496" t="s">
+    <row r="112" spans="1:8" s="390" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="497"/>
-      <c r="C112" s="497"/>
-      <c r="D112" s="498"/>
+      <c r="B112" s="505"/>
+      <c r="C112" s="505"/>
+      <c r="D112" s="506"/>
       <c r="E112" s="389">
         <f>SUM(E8:E111)</f>
         <v>499097400</v>
@@ -6314,11 +6313,11 @@
       <c r="H113" s="393"/>
     </row>
     <row r="114" spans="1:8" s="390" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="501" t="s">
+      <c r="A114" s="508" t="s">
         <v>81</v>
       </c>
-      <c r="B114" s="501"/>
-      <c r="C114" s="501"/>
+      <c r="B114" s="508"/>
+      <c r="C114" s="508"/>
       <c r="D114" s="392"/>
       <c r="E114" s="393"/>
       <c r="F114" s="393"/>
@@ -6337,43 +6336,43 @@
     </row>
     <row r="116" spans="1:8" s="390" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="463"/>
-      <c r="B116" s="500" t="s">
+      <c r="B116" s="497" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="500"/>
-      <c r="D116" s="500"/>
+      <c r="C116" s="497"/>
+      <c r="D116" s="497"/>
       <c r="E116" s="393"/>
       <c r="F116" s="393"/>
       <c r="G116" s="393"/>
       <c r="H116" s="393"/>
     </row>
     <row r="117" spans="1:8" s="378" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="503" t="s">
+      <c r="A117" s="498" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="507" t="s">
+      <c r="B117" s="500" t="s">
         <v>306</v>
       </c>
-      <c r="C117" s="503" t="s">
+      <c r="C117" s="498" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="505" t="s">
+      <c r="D117" s="502" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="499" t="s">
+      <c r="E117" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="499"/>
-      <c r="G117" s="499" t="s">
+      <c r="F117" s="496"/>
+      <c r="G117" s="496" t="s">
         <v>8</v>
       </c>
-      <c r="H117" s="499"/>
+      <c r="H117" s="496"/>
     </row>
     <row r="118" spans="1:8" s="378" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="504"/>
-      <c r="B118" s="508"/>
-      <c r="C118" s="504"/>
-      <c r="D118" s="506"/>
+      <c r="A118" s="499"/>
+      <c r="B118" s="501"/>
+      <c r="C118" s="499"/>
+      <c r="D118" s="503"/>
       <c r="E118" s="382" t="s">
         <v>80</v>
       </c>
@@ -6608,12 +6607,12 @@
       </c>
     </row>
     <row r="130" spans="1:8" s="390" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="496" t="s">
+      <c r="A130" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="B130" s="497"/>
-      <c r="C130" s="497"/>
-      <c r="D130" s="498"/>
+      <c r="B130" s="505"/>
+      <c r="C130" s="505"/>
+      <c r="D130" s="506"/>
       <c r="E130" s="389"/>
       <c r="F130" s="389"/>
       <c r="G130" s="389">
@@ -6637,43 +6636,43 @@
     </row>
     <row r="132" spans="1:8" s="390" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="463"/>
-      <c r="B132" s="509" t="s">
+      <c r="B132" s="507" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="509"/>
-      <c r="D132" s="509"/>
+      <c r="C132" s="507"/>
+      <c r="D132" s="507"/>
       <c r="E132" s="393"/>
       <c r="F132" s="393"/>
       <c r="G132" s="393"/>
       <c r="H132" s="393"/>
     </row>
     <row r="133" spans="1:8" s="378" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="503" t="s">
+      <c r="A133" s="498" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="507" t="s">
+      <c r="B133" s="500" t="s">
         <v>306</v>
       </c>
-      <c r="C133" s="503" t="s">
+      <c r="C133" s="498" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="505" t="s">
+      <c r="D133" s="502" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="499" t="s">
+      <c r="E133" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F133" s="499"/>
-      <c r="G133" s="499" t="s">
+      <c r="F133" s="496"/>
+      <c r="G133" s="496" t="s">
         <v>8</v>
       </c>
-      <c r="H133" s="499"/>
+      <c r="H133" s="496"/>
     </row>
     <row r="134" spans="1:8" s="378" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="504"/>
-      <c r="B134" s="508"/>
-      <c r="C134" s="504"/>
-      <c r="D134" s="506"/>
+      <c r="A134" s="499"/>
+      <c r="B134" s="501"/>
+      <c r="C134" s="499"/>
+      <c r="D134" s="503"/>
       <c r="E134" s="382" t="s">
         <v>80</v>
       </c>
@@ -7170,12 +7169,12 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="496" t="s">
+      <c r="A159" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="B159" s="497"/>
-      <c r="C159" s="497"/>
-      <c r="D159" s="498"/>
+      <c r="B159" s="505"/>
+      <c r="C159" s="505"/>
+      <c r="D159" s="506"/>
       <c r="E159" s="477"/>
       <c r="F159" s="477"/>
       <c r="G159" s="477"/>
@@ -7186,43 +7185,43 @@
     </row>
     <row r="161" spans="1:8" s="390" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="463"/>
-      <c r="B161" s="509" t="s">
+      <c r="B161" s="507" t="s">
         <v>413</v>
       </c>
-      <c r="C161" s="509"/>
-      <c r="D161" s="509"/>
+      <c r="C161" s="507"/>
+      <c r="D161" s="507"/>
       <c r="E161" s="393"/>
       <c r="F161" s="393"/>
       <c r="G161" s="393"/>
       <c r="H161" s="393"/>
     </row>
     <row r="162" spans="1:8" s="378" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="503" t="s">
+      <c r="A162" s="498" t="s">
         <v>4</v>
       </c>
-      <c r="B162" s="507" t="s">
+      <c r="B162" s="500" t="s">
         <v>306</v>
       </c>
-      <c r="C162" s="503" t="s">
+      <c r="C162" s="498" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="505" t="s">
+      <c r="D162" s="502" t="s">
         <v>6</v>
       </c>
-      <c r="E162" s="499" t="s">
+      <c r="E162" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F162" s="499"/>
-      <c r="G162" s="499" t="s">
+      <c r="F162" s="496"/>
+      <c r="G162" s="496" t="s">
         <v>8</v>
       </c>
-      <c r="H162" s="499"/>
+      <c r="H162" s="496"/>
     </row>
     <row r="163" spans="1:8" s="378" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="504"/>
-      <c r="B163" s="508"/>
-      <c r="C163" s="504"/>
-      <c r="D163" s="506"/>
+      <c r="A163" s="499"/>
+      <c r="B163" s="501"/>
+      <c r="C163" s="499"/>
+      <c r="D163" s="503"/>
       <c r="E163" s="382" t="s">
         <v>80</v>
       </c>
@@ -7977,12 +7976,12 @@
       <c r="H200" s="476"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="496" t="s">
+      <c r="A201" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="B201" s="497"/>
-      <c r="C201" s="497"/>
-      <c r="D201" s="498"/>
+      <c r="B201" s="505"/>
+      <c r="C201" s="505"/>
+      <c r="D201" s="506"/>
       <c r="E201" s="389">
         <f>SUBTOTAL(9,E164:E200)</f>
         <v>499097400</v>
@@ -8002,43 +8001,43 @@
     </row>
     <row r="203" spans="1:8" s="390" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="463"/>
-      <c r="B203" s="500" t="s">
+      <c r="B203" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="C203" s="500"/>
-      <c r="D203" s="500"/>
+      <c r="C203" s="497"/>
+      <c r="D203" s="497"/>
       <c r="E203" s="393"/>
       <c r="F203" s="393"/>
       <c r="G203" s="393"/>
       <c r="H203" s="393"/>
     </row>
     <row r="204" spans="1:8" s="378" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="503" t="s">
+      <c r="A204" s="498" t="s">
         <v>4</v>
       </c>
-      <c r="B204" s="507" t="s">
+      <c r="B204" s="500" t="s">
         <v>306</v>
       </c>
-      <c r="C204" s="503" t="s">
+      <c r="C204" s="498" t="s">
         <v>5</v>
       </c>
-      <c r="D204" s="505" t="s">
+      <c r="D204" s="502" t="s">
         <v>6</v>
       </c>
-      <c r="E204" s="499" t="s">
+      <c r="E204" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F204" s="499"/>
-      <c r="G204" s="499" t="s">
+      <c r="F204" s="496"/>
+      <c r="G204" s="496" t="s">
         <v>8</v>
       </c>
-      <c r="H204" s="499"/>
+      <c r="H204" s="496"/>
     </row>
     <row r="205" spans="1:8" s="378" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="504"/>
-      <c r="B205" s="508"/>
-      <c r="C205" s="504"/>
-      <c r="D205" s="506"/>
+      <c r="A205" s="499"/>
+      <c r="B205" s="501"/>
+      <c r="C205" s="499"/>
+      <c r="D205" s="503"/>
       <c r="E205" s="382" t="s">
         <v>80</v>
       </c>
@@ -8173,12 +8172,12 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="496" t="s">
+      <c r="A212" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="B212" s="497"/>
-      <c r="C212" s="497"/>
-      <c r="D212" s="498"/>
+      <c r="B212" s="505"/>
+      <c r="C212" s="505"/>
+      <c r="D212" s="506"/>
       <c r="E212" s="477"/>
       <c r="F212" s="477"/>
       <c r="G212" s="389">
@@ -8192,43 +8191,43 @@
     </row>
     <row r="214" spans="1:8" s="390" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="463"/>
-      <c r="B214" s="500" t="s">
+      <c r="B214" s="497" t="s">
         <v>414</v>
       </c>
-      <c r="C214" s="500"/>
-      <c r="D214" s="500"/>
+      <c r="C214" s="497"/>
+      <c r="D214" s="497"/>
       <c r="E214" s="393"/>
       <c r="F214" s="393"/>
       <c r="G214" s="393"/>
       <c r="H214" s="393"/>
     </row>
     <row r="215" spans="1:8" s="378" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="503" t="s">
+      <c r="A215" s="498" t="s">
         <v>4</v>
       </c>
-      <c r="B215" s="507" t="s">
+      <c r="B215" s="500" t="s">
         <v>306</v>
       </c>
-      <c r="C215" s="503" t="s">
+      <c r="C215" s="498" t="s">
         <v>5</v>
       </c>
-      <c r="D215" s="505" t="s">
+      <c r="D215" s="502" t="s">
         <v>6</v>
       </c>
-      <c r="E215" s="499" t="s">
+      <c r="E215" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F215" s="499"/>
-      <c r="G215" s="499" t="s">
+      <c r="F215" s="496"/>
+      <c r="G215" s="496" t="s">
         <v>8</v>
       </c>
-      <c r="H215" s="499"/>
+      <c r="H215" s="496"/>
     </row>
     <row r="216" spans="1:8" s="378" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="504"/>
-      <c r="B216" s="508"/>
-      <c r="C216" s="504"/>
-      <c r="D216" s="506"/>
+      <c r="A216" s="499"/>
+      <c r="B216" s="501"/>
+      <c r="C216" s="499"/>
+      <c r="D216" s="503"/>
       <c r="E216" s="382" t="s">
         <v>80</v>
       </c>
@@ -8383,12 +8382,12 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="496" t="s">
+      <c r="A224" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="B224" s="497"/>
-      <c r="C224" s="497"/>
-      <c r="D224" s="498"/>
+      <c r="B224" s="505"/>
+      <c r="C224" s="505"/>
+      <c r="D224" s="506"/>
       <c r="E224" s="477"/>
       <c r="F224" s="477"/>
       <c r="G224" s="389">
@@ -8402,43 +8401,43 @@
     </row>
     <row r="226" spans="1:8" s="390" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="463"/>
-      <c r="B226" s="500" t="s">
+      <c r="B226" s="497" t="s">
         <v>13</v>
       </c>
-      <c r="C226" s="500"/>
-      <c r="D226" s="500"/>
+      <c r="C226" s="497"/>
+      <c r="D226" s="497"/>
       <c r="E226" s="393"/>
       <c r="F226" s="393"/>
       <c r="G226" s="393"/>
       <c r="H226" s="393"/>
     </row>
     <row r="227" spans="1:8" s="378" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="503" t="s">
+      <c r="A227" s="498" t="s">
         <v>4</v>
       </c>
-      <c r="B227" s="507" t="s">
+      <c r="B227" s="500" t="s">
         <v>306</v>
       </c>
-      <c r="C227" s="503" t="s">
+      <c r="C227" s="498" t="s">
         <v>5</v>
       </c>
-      <c r="D227" s="505" t="s">
+      <c r="D227" s="502" t="s">
         <v>6</v>
       </c>
-      <c r="E227" s="499" t="s">
+      <c r="E227" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F227" s="499"/>
-      <c r="G227" s="499" t="s">
+      <c r="F227" s="496"/>
+      <c r="G227" s="496" t="s">
         <v>8</v>
       </c>
-      <c r="H227" s="499"/>
+      <c r="H227" s="496"/>
     </row>
     <row r="228" spans="1:8" s="378" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="504"/>
-      <c r="B228" s="508"/>
-      <c r="C228" s="504"/>
-      <c r="D228" s="506"/>
+      <c r="A228" s="499"/>
+      <c r="B228" s="501"/>
+      <c r="C228" s="499"/>
+      <c r="D228" s="503"/>
       <c r="E228" s="382" t="s">
         <v>80</v>
       </c>
@@ -8593,12 +8592,12 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="496" t="s">
+      <c r="A236" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="B236" s="497"/>
-      <c r="C236" s="497"/>
-      <c r="D236" s="498"/>
+      <c r="B236" s="505"/>
+      <c r="C236" s="505"/>
+      <c r="D236" s="506"/>
       <c r="E236" s="477"/>
       <c r="F236" s="477"/>
       <c r="G236" s="389">
@@ -8612,43 +8611,43 @@
     </row>
     <row r="238" spans="1:8" s="390" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="463"/>
-      <c r="B238" s="500" t="s">
+      <c r="B238" s="497" t="s">
         <v>13</v>
       </c>
-      <c r="C238" s="500"/>
-      <c r="D238" s="500"/>
+      <c r="C238" s="497"/>
+      <c r="D238" s="497"/>
       <c r="E238" s="393"/>
       <c r="F238" s="393"/>
       <c r="G238" s="393"/>
       <c r="H238" s="393"/>
     </row>
     <row r="239" spans="1:8" s="378" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="503" t="s">
+      <c r="A239" s="498" t="s">
         <v>4</v>
       </c>
-      <c r="B239" s="507" t="s">
+      <c r="B239" s="500" t="s">
         <v>306</v>
       </c>
-      <c r="C239" s="503" t="s">
+      <c r="C239" s="498" t="s">
         <v>5</v>
       </c>
-      <c r="D239" s="505" t="s">
+      <c r="D239" s="502" t="s">
         <v>6</v>
       </c>
-      <c r="E239" s="499" t="s">
+      <c r="E239" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F239" s="499"/>
-      <c r="G239" s="499" t="s">
+      <c r="F239" s="496"/>
+      <c r="G239" s="496" t="s">
         <v>8</v>
       </c>
-      <c r="H239" s="499"/>
+      <c r="H239" s="496"/>
     </row>
     <row r="240" spans="1:8" s="378" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="504"/>
-      <c r="B240" s="508"/>
-      <c r="C240" s="504"/>
-      <c r="D240" s="506"/>
+      <c r="A240" s="499"/>
+      <c r="B240" s="501"/>
+      <c r="C240" s="499"/>
+      <c r="D240" s="503"/>
       <c r="E240" s="382" t="s">
         <v>80</v>
       </c>
@@ -8684,12 +8683,12 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="496" t="s">
+      <c r="A242" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="B242" s="497"/>
-      <c r="C242" s="497"/>
-      <c r="D242" s="498"/>
+      <c r="B242" s="505"/>
+      <c r="C242" s="505"/>
+      <c r="D242" s="506"/>
       <c r="E242" s="477"/>
       <c r="F242" s="477"/>
       <c r="G242" s="477"/>
@@ -8700,43 +8699,43 @@
     </row>
     <row r="244" spans="1:8" s="390" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="463"/>
-      <c r="B244" s="500" t="s">
+      <c r="B244" s="497" t="s">
         <v>24</v>
       </c>
-      <c r="C244" s="500"/>
-      <c r="D244" s="500"/>
+      <c r="C244" s="497"/>
+      <c r="D244" s="497"/>
       <c r="E244" s="393"/>
       <c r="F244" s="393"/>
       <c r="G244" s="393"/>
       <c r="H244" s="393"/>
     </row>
     <row r="245" spans="1:8" s="378" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="503" t="s">
+      <c r="A245" s="498" t="s">
         <v>4</v>
       </c>
-      <c r="B245" s="507" t="s">
+      <c r="B245" s="500" t="s">
         <v>306</v>
       </c>
-      <c r="C245" s="503" t="s">
+      <c r="C245" s="498" t="s">
         <v>5</v>
       </c>
-      <c r="D245" s="505" t="s">
+      <c r="D245" s="502" t="s">
         <v>6</v>
       </c>
-      <c r="E245" s="499" t="s">
+      <c r="E245" s="496" t="s">
         <v>7</v>
       </c>
-      <c r="F245" s="499"/>
-      <c r="G245" s="499" t="s">
+      <c r="F245" s="496"/>
+      <c r="G245" s="496" t="s">
         <v>8</v>
       </c>
-      <c r="H245" s="499"/>
+      <c r="H245" s="496"/>
     </row>
     <row r="246" spans="1:8" s="378" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="504"/>
-      <c r="B246" s="508"/>
-      <c r="C246" s="504"/>
-      <c r="D246" s="506"/>
+      <c r="A246" s="499"/>
+      <c r="B246" s="501"/>
+      <c r="C246" s="499"/>
+      <c r="D246" s="503"/>
       <c r="E246" s="382" t="s">
         <v>80</v>
       </c>
@@ -8971,12 +8970,12 @@
       <c r="H257" s="387"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A258" s="496" t="s">
+      <c r="A258" s="504" t="s">
         <v>10</v>
       </c>
-      <c r="B258" s="497"/>
-      <c r="C258" s="497"/>
-      <c r="D258" s="498"/>
+      <c r="B258" s="505"/>
+      <c r="C258" s="505"/>
+      <c r="D258" s="506"/>
       <c r="E258" s="477"/>
       <c r="F258" s="477"/>
       <c r="G258" s="389">
@@ -9020,56 +9019,26 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:H112">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Biển bảng"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4" hiddenButton="1" showButton="0"/>
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="73">
-    <mergeCell ref="E245:F245"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="D239:D240"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="G239:H239"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
     <mergeCell ref="G117:H117"/>
     <mergeCell ref="B116:D116"/>
     <mergeCell ref="A114:C114"/>
@@ -9086,22 +9055,47 @@
     <mergeCell ref="C117:C118"/>
     <mergeCell ref="D117:D118"/>
     <mergeCell ref="E117:F117"/>
-    <mergeCell ref="A242:D242"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="G239:H239"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="G245:H245"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.46" bottom="0.45" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9144,13 +9138,13 @@
       <c r="J2" s="157"/>
     </row>
     <row r="3" spans="1:14" s="155" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="581" t="s">
+      <c r="A3" s="575" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="581"/>
-      <c r="C3" s="581"/>
-      <c r="D3" s="581"/>
-      <c r="E3" s="581"/>
+      <c r="B3" s="575"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="575"/>
+      <c r="E3" s="575"/>
       <c r="F3" s="154"/>
       <c r="G3" s="154"/>
       <c r="H3" s="154"/>
@@ -9530,13 +9524,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="542" t="s">
+      <c r="A1" s="543" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="542"/>
-      <c r="C1" s="542"/>
-      <c r="D1" s="542"/>
-      <c r="E1" s="542"/>
+      <c r="B1" s="543"/>
+      <c r="C1" s="543"/>
+      <c r="D1" s="543"/>
+      <c r="E1" s="543"/>
       <c r="N1" s="186"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -9550,163 +9544,163 @@
       <c r="N2" s="190"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="543" t="s">
+      <c r="A3" s="544" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="543"/>
-      <c r="C3" s="543"/>
-      <c r="D3" s="543"/>
-      <c r="E3" s="543"/>
-      <c r="F3" s="543"/>
-      <c r="G3" s="543"/>
-      <c r="H3" s="543"/>
-      <c r="I3" s="543"/>
-      <c r="J3" s="543"/>
-      <c r="K3" s="543"/>
-      <c r="L3" s="543"/>
-      <c r="M3" s="543"/>
-      <c r="N3" s="543"/>
-      <c r="O3" s="543"/>
-      <c r="P3" s="543"/>
+      <c r="B3" s="544"/>
+      <c r="C3" s="544"/>
+      <c r="D3" s="544"/>
+      <c r="E3" s="544"/>
+      <c r="F3" s="544"/>
+      <c r="G3" s="544"/>
+      <c r="H3" s="544"/>
+      <c r="I3" s="544"/>
+      <c r="J3" s="544"/>
+      <c r="K3" s="544"/>
+      <c r="L3" s="544"/>
+      <c r="M3" s="544"/>
+      <c r="N3" s="544"/>
+      <c r="O3" s="544"/>
+      <c r="P3" s="544"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="543" t="s">
+      <c r="A4" s="544" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="543"/>
-      <c r="C4" s="543"/>
-      <c r="D4" s="543"/>
-      <c r="E4" s="543"/>
-      <c r="F4" s="543"/>
-      <c r="G4" s="543"/>
-      <c r="H4" s="543"/>
-      <c r="I4" s="543"/>
-      <c r="J4" s="543"/>
-      <c r="K4" s="543"/>
-      <c r="L4" s="543"/>
-      <c r="M4" s="543"/>
-      <c r="N4" s="543"/>
-      <c r="O4" s="543"/>
-      <c r="P4" s="543"/>
+      <c r="B4" s="544"/>
+      <c r="C4" s="544"/>
+      <c r="D4" s="544"/>
+      <c r="E4" s="544"/>
+      <c r="F4" s="544"/>
+      <c r="G4" s="544"/>
+      <c r="H4" s="544"/>
+      <c r="I4" s="544"/>
+      <c r="J4" s="544"/>
+      <c r="K4" s="544"/>
+      <c r="L4" s="544"/>
+      <c r="M4" s="544"/>
+      <c r="N4" s="544"/>
+      <c r="O4" s="544"/>
+      <c r="P4" s="544"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="543"/>
-      <c r="B5" s="543"/>
-      <c r="C5" s="543"/>
-      <c r="D5" s="543"/>
-      <c r="E5" s="543"/>
-      <c r="F5" s="543"/>
-      <c r="G5" s="543"/>
-      <c r="H5" s="543"/>
-      <c r="I5" s="543"/>
-      <c r="J5" s="543"/>
-      <c r="K5" s="544"/>
-      <c r="L5" s="544"/>
+      <c r="A5" s="544"/>
+      <c r="B5" s="544"/>
+      <c r="C5" s="544"/>
+      <c r="D5" s="544"/>
+      <c r="E5" s="544"/>
+      <c r="F5" s="544"/>
+      <c r="G5" s="544"/>
+      <c r="H5" s="544"/>
+      <c r="I5" s="544"/>
+      <c r="J5" s="544"/>
+      <c r="K5" s="545"/>
+      <c r="L5" s="545"/>
     </row>
     <row r="6" spans="1:17" s="191" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="545" t="s">
+      <c r="A6" s="546" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="548" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="545" t="s">
+      <c r="C6" s="546" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="551" t="s">
+      <c r="D6" s="552" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="551"/>
-      <c r="F6" s="552" t="s">
+      <c r="E6" s="552"/>
+      <c r="F6" s="553" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="552"/>
-      <c r="H6" s="552"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="552"/>
-      <c r="L6" s="552"/>
-      <c r="M6" s="553"/>
-      <c r="N6" s="553"/>
-      <c r="O6" s="553"/>
-      <c r="P6" s="554" t="s">
+      <c r="G6" s="553"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="553"/>
+      <c r="K6" s="553"/>
+      <c r="L6" s="553"/>
+      <c r="M6" s="554"/>
+      <c r="N6" s="554"/>
+      <c r="O6" s="554"/>
+      <c r="P6" s="555" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="191" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="546"/>
-      <c r="B7" s="548"/>
-      <c r="C7" s="546"/>
-      <c r="D7" s="545" t="s">
+      <c r="A7" s="547"/>
+      <c r="B7" s="549"/>
+      <c r="C7" s="547"/>
+      <c r="D7" s="546" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="545" t="s">
+      <c r="E7" s="546" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="545" t="s">
+      <c r="F7" s="546" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="545" t="s">
+      <c r="G7" s="546" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="549" t="s">
+      <c r="H7" s="550" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="549" t="s">
+      <c r="I7" s="550" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="556" t="s">
+      <c r="J7" s="557" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="556"/>
-      <c r="L7" s="549" t="s">
+      <c r="K7" s="557"/>
+      <c r="L7" s="550" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="549" t="s">
+      <c r="M7" s="550" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="549" t="s">
+      <c r="N7" s="550" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="549" t="s">
+      <c r="O7" s="550" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="555"/>
+      <c r="P7" s="556"/>
     </row>
     <row r="8" spans="1:17" s="191" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="546"/>
-      <c r="B8" s="548"/>
-      <c r="C8" s="546"/>
-      <c r="D8" s="546"/>
-      <c r="E8" s="546"/>
-      <c r="F8" s="546"/>
-      <c r="G8" s="546"/>
-      <c r="H8" s="550"/>
-      <c r="I8" s="550"/>
+      <c r="A8" s="547"/>
+      <c r="B8" s="549"/>
+      <c r="C8" s="547"/>
+      <c r="D8" s="547"/>
+      <c r="E8" s="547"/>
+      <c r="F8" s="547"/>
+      <c r="G8" s="547"/>
+      <c r="H8" s="551"/>
+      <c r="I8" s="551"/>
       <c r="J8" s="303" t="s">
         <v>83</v>
       </c>
       <c r="K8" s="192" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="550"/>
-      <c r="M8" s="550"/>
-      <c r="N8" s="550"/>
-      <c r="O8" s="550"/>
-      <c r="P8" s="555"/>
+      <c r="L8" s="551"/>
+      <c r="M8" s="551"/>
+      <c r="N8" s="551"/>
+      <c r="O8" s="551"/>
+      <c r="P8" s="556"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="514">
+      <c r="A9" s="510">
         <v>630</v>
       </c>
-      <c r="B9" s="519">
+      <c r="B9" s="512">
         <v>44044</v>
       </c>
-      <c r="C9" s="510" t="s">
+      <c r="C9" s="514" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="510"/>
-      <c r="E9" s="510"/>
+      <c r="D9" s="514"/>
+      <c r="E9" s="514"/>
       <c r="F9" s="304" t="s">
         <v>171</v>
       </c>
@@ -9737,11 +9731,11 @@
       <c r="P9" s="304"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="516"/>
-      <c r="B10" s="529"/>
-      <c r="C10" s="518"/>
-      <c r="D10" s="518"/>
-      <c r="E10" s="518"/>
+      <c r="A10" s="518"/>
+      <c r="B10" s="524"/>
+      <c r="C10" s="522"/>
+      <c r="D10" s="522"/>
+      <c r="E10" s="522"/>
       <c r="F10" s="309" t="s">
         <v>172</v>
       </c>
@@ -9772,11 +9766,11 @@
       <c r="P10" s="297"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="516"/>
-      <c r="B11" s="529"/>
-      <c r="C11" s="518"/>
-      <c r="D11" s="518"/>
-      <c r="E11" s="518"/>
+      <c r="A11" s="518"/>
+      <c r="B11" s="524"/>
+      <c r="C11" s="522"/>
+      <c r="D11" s="522"/>
+      <c r="E11" s="522"/>
       <c r="F11" s="309" t="s">
         <v>169</v>
       </c>
@@ -9808,11 +9802,11 @@
       <c r="Q11" s="317"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="515"/>
-      <c r="B12" s="520"/>
-      <c r="C12" s="511"/>
-      <c r="D12" s="511"/>
-      <c r="E12" s="511"/>
+      <c r="A12" s="511"/>
+      <c r="B12" s="513"/>
+      <c r="C12" s="515"/>
+      <c r="D12" s="515"/>
+      <c r="E12" s="515"/>
       <c r="F12" s="305" t="s">
         <v>173</v>
       </c>
@@ -9843,19 +9837,19 @@
       <c r="P12" s="299"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="514">
+      <c r="A13" s="510">
         <v>628</v>
       </c>
-      <c r="B13" s="519">
+      <c r="B13" s="512">
         <v>44045</v>
       </c>
-      <c r="C13" s="510" t="s">
+      <c r="C13" s="514" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="510" t="s">
+      <c r="D13" s="514" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="510" t="s">
+      <c r="E13" s="514" t="s">
         <v>168</v>
       </c>
       <c r="F13" s="416" t="s">
@@ -9888,11 +9882,11 @@
       <c r="P13" s="416"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="515"/>
-      <c r="B14" s="520"/>
-      <c r="C14" s="511"/>
-      <c r="D14" s="511"/>
-      <c r="E14" s="511"/>
+      <c r="A14" s="511"/>
+      <c r="B14" s="513"/>
+      <c r="C14" s="515"/>
+      <c r="D14" s="515"/>
+      <c r="E14" s="515"/>
       <c r="F14" s="417" t="s">
         <v>183</v>
       </c>
@@ -10009,17 +10003,17 @@
       <c r="P16" s="327"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="514">
+      <c r="A17" s="510">
         <v>635</v>
       </c>
-      <c r="B17" s="519">
+      <c r="B17" s="512">
         <v>44047</v>
       </c>
-      <c r="C17" s="510"/>
-      <c r="D17" s="521" t="s">
+      <c r="C17" s="514"/>
+      <c r="D17" s="516" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="521" t="s">
+      <c r="E17" s="516" t="s">
         <v>179</v>
       </c>
       <c r="F17" s="304" t="s">
@@ -10052,11 +10046,11 @@
       <c r="P17" s="331"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="515"/>
-      <c r="B18" s="520"/>
-      <c r="C18" s="511"/>
-      <c r="D18" s="522"/>
-      <c r="E18" s="522"/>
+      <c r="A18" s="511"/>
+      <c r="B18" s="513"/>
+      <c r="C18" s="515"/>
+      <c r="D18" s="517"/>
+      <c r="E18" s="517"/>
       <c r="F18" s="305" t="s">
         <v>172</v>
       </c>
@@ -10087,19 +10081,19 @@
       <c r="P18" s="333"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="514">
+      <c r="A19" s="510">
         <v>637</v>
       </c>
-      <c r="B19" s="519">
+      <c r="B19" s="512">
         <v>44048</v>
       </c>
-      <c r="C19" s="510" t="s">
+      <c r="C19" s="514" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="521" t="s">
+      <c r="D19" s="516" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="521"/>
+      <c r="E19" s="516"/>
       <c r="F19" s="304" t="s">
         <v>171</v>
       </c>
@@ -10130,11 +10124,11 @@
       <c r="P19" s="331"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="516"/>
-      <c r="B20" s="529"/>
-      <c r="C20" s="518"/>
-      <c r="D20" s="540"/>
-      <c r="E20" s="540"/>
+      <c r="A20" s="518"/>
+      <c r="B20" s="524"/>
+      <c r="C20" s="522"/>
+      <c r="D20" s="523"/>
+      <c r="E20" s="523"/>
       <c r="F20" s="309" t="s">
         <v>172</v>
       </c>
@@ -10165,11 +10159,11 @@
       <c r="P20" s="335"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="516"/>
-      <c r="B21" s="529"/>
-      <c r="C21" s="518"/>
-      <c r="D21" s="540"/>
-      <c r="E21" s="540"/>
+      <c r="A21" s="518"/>
+      <c r="B21" s="524"/>
+      <c r="C21" s="522"/>
+      <c r="D21" s="523"/>
+      <c r="E21" s="523"/>
       <c r="F21" s="309" t="s">
         <v>182</v>
       </c>
@@ -10200,11 +10194,11 @@
       <c r="P21" s="335"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="516"/>
-      <c r="B22" s="529"/>
-      <c r="C22" s="518"/>
-      <c r="D22" s="540"/>
-      <c r="E22" s="540"/>
+      <c r="A22" s="518"/>
+      <c r="B22" s="524"/>
+      <c r="C22" s="522"/>
+      <c r="D22" s="523"/>
+      <c r="E22" s="523"/>
       <c r="F22" s="309" t="s">
         <v>169</v>
       </c>
@@ -10235,11 +10229,11 @@
       <c r="P22" s="335"/>
     </row>
     <row r="23" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="516"/>
-      <c r="B23" s="529"/>
-      <c r="C23" s="518"/>
-      <c r="D23" s="540"/>
-      <c r="E23" s="540"/>
+      <c r="A23" s="518"/>
+      <c r="B23" s="524"/>
+      <c r="C23" s="522"/>
+      <c r="D23" s="523"/>
+      <c r="E23" s="523"/>
       <c r="F23" s="309" t="s">
         <v>173</v>
       </c>
@@ -10271,11 +10265,11 @@
       <c r="R23" s="317"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="516"/>
-      <c r="B24" s="529"/>
-      <c r="C24" s="518"/>
-      <c r="D24" s="540"/>
-      <c r="E24" s="540"/>
+      <c r="A24" s="518"/>
+      <c r="B24" s="524"/>
+      <c r="C24" s="522"/>
+      <c r="D24" s="523"/>
+      <c r="E24" s="523"/>
       <c r="F24" s="309" t="s">
         <v>175</v>
       </c>
@@ -10306,11 +10300,11 @@
       <c r="P24" s="309"/>
     </row>
     <row r="25" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="516"/>
-      <c r="B25" s="529"/>
-      <c r="C25" s="518"/>
-      <c r="D25" s="540"/>
-      <c r="E25" s="540"/>
+      <c r="A25" s="518"/>
+      <c r="B25" s="524"/>
+      <c r="C25" s="522"/>
+      <c r="D25" s="523"/>
+      <c r="E25" s="523"/>
       <c r="F25" s="309" t="s">
         <v>183</v>
       </c>
@@ -10341,11 +10335,11 @@
       <c r="P25" s="309"/>
     </row>
     <row r="26" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="515"/>
-      <c r="B26" s="520"/>
-      <c r="C26" s="511"/>
-      <c r="D26" s="522"/>
-      <c r="E26" s="522"/>
+      <c r="A26" s="511"/>
+      <c r="B26" s="513"/>
+      <c r="C26" s="515"/>
+      <c r="D26" s="517"/>
+      <c r="E26" s="517"/>
       <c r="F26" s="305" t="s">
         <v>184</v>
       </c>
@@ -10376,19 +10370,19 @@
       <c r="P26" s="305"/>
     </row>
     <row r="27" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="514">
+      <c r="A27" s="510">
         <v>638</v>
       </c>
-      <c r="B27" s="519">
+      <c r="B27" s="512">
         <v>44048</v>
       </c>
-      <c r="C27" s="510" t="s">
+      <c r="C27" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="510" t="s">
+      <c r="D27" s="514" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="510" t="s">
+      <c r="E27" s="514" t="s">
         <v>187</v>
       </c>
       <c r="F27" s="304" t="s">
@@ -10421,11 +10415,11 @@
       <c r="P27" s="304"/>
     </row>
     <row r="28" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="516"/>
-      <c r="B28" s="529"/>
-      <c r="C28" s="518"/>
-      <c r="D28" s="518"/>
-      <c r="E28" s="518"/>
+      <c r="A28" s="518"/>
+      <c r="B28" s="524"/>
+      <c r="C28" s="522"/>
+      <c r="D28" s="522"/>
+      <c r="E28" s="522"/>
       <c r="F28" s="309" t="s">
         <v>171</v>
       </c>
@@ -10456,11 +10450,11 @@
       <c r="P28" s="309"/>
     </row>
     <row r="29" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="516"/>
-      <c r="B29" s="529"/>
-      <c r="C29" s="518"/>
-      <c r="D29" s="518"/>
-      <c r="E29" s="518"/>
+      <c r="A29" s="518"/>
+      <c r="B29" s="524"/>
+      <c r="C29" s="522"/>
+      <c r="D29" s="522"/>
+      <c r="E29" s="522"/>
       <c r="F29" s="309" t="s">
         <v>172</v>
       </c>
@@ -10491,11 +10485,11 @@
       <c r="P29" s="335"/>
     </row>
     <row r="30" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="516"/>
-      <c r="B30" s="529"/>
-      <c r="C30" s="518"/>
-      <c r="D30" s="518"/>
-      <c r="E30" s="518"/>
+      <c r="A30" s="518"/>
+      <c r="B30" s="524"/>
+      <c r="C30" s="522"/>
+      <c r="D30" s="522"/>
+      <c r="E30" s="522"/>
       <c r="F30" s="309" t="s">
         <v>182</v>
       </c>
@@ -10526,11 +10520,11 @@
       <c r="P30" s="309"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="516"/>
-      <c r="B31" s="529"/>
-      <c r="C31" s="518"/>
-      <c r="D31" s="518"/>
-      <c r="E31" s="518"/>
+      <c r="A31" s="518"/>
+      <c r="B31" s="524"/>
+      <c r="C31" s="522"/>
+      <c r="D31" s="522"/>
+      <c r="E31" s="522"/>
       <c r="F31" s="309" t="s">
         <v>169</v>
       </c>
@@ -10561,11 +10555,11 @@
       <c r="P31" s="309"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="516"/>
-      <c r="B32" s="529"/>
-      <c r="C32" s="518"/>
-      <c r="D32" s="518"/>
-      <c r="E32" s="518"/>
+      <c r="A32" s="518"/>
+      <c r="B32" s="524"/>
+      <c r="C32" s="522"/>
+      <c r="D32" s="522"/>
+      <c r="E32" s="522"/>
       <c r="F32" s="309" t="s">
         <v>173</v>
       </c>
@@ -10596,11 +10590,11 @@
       <c r="P32" s="309"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="515"/>
-      <c r="B33" s="520"/>
-      <c r="C33" s="511"/>
-      <c r="D33" s="511"/>
-      <c r="E33" s="511"/>
+      <c r="A33" s="511"/>
+      <c r="B33" s="513"/>
+      <c r="C33" s="515"/>
+      <c r="D33" s="515"/>
+      <c r="E33" s="515"/>
       <c r="F33" s="305" t="s">
         <v>184</v>
       </c>
@@ -10631,19 +10625,19 @@
       <c r="P33" s="342"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="514">
+      <c r="A34" s="510">
         <v>653</v>
       </c>
-      <c r="B34" s="519">
+      <c r="B34" s="512">
         <v>44051</v>
       </c>
-      <c r="C34" s="521" t="s">
+      <c r="C34" s="516" t="s">
         <v>400</v>
       </c>
-      <c r="D34" s="510" t="s">
+      <c r="D34" s="514" t="s">
         <v>271</v>
       </c>
-      <c r="E34" s="510" t="s">
+      <c r="E34" s="514" t="s">
         <v>272</v>
       </c>
       <c r="F34" s="304" t="s">
@@ -10676,11 +10670,11 @@
       <c r="P34" s="343"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="515"/>
-      <c r="B35" s="520"/>
-      <c r="C35" s="522"/>
-      <c r="D35" s="511"/>
-      <c r="E35" s="511"/>
+      <c r="A35" s="511"/>
+      <c r="B35" s="513"/>
+      <c r="C35" s="517"/>
+      <c r="D35" s="515"/>
+      <c r="E35" s="515"/>
       <c r="F35" s="305" t="s">
         <v>184</v>
       </c>
@@ -10711,17 +10705,17 @@
       <c r="P35" s="342"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="514">
+      <c r="A36" s="510">
         <v>646</v>
       </c>
-      <c r="B36" s="519">
+      <c r="B36" s="512">
         <v>44053</v>
       </c>
-      <c r="C36" s="510" t="s">
+      <c r="C36" s="514" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="521"/>
-      <c r="E36" s="510"/>
+      <c r="D36" s="516"/>
+      <c r="E36" s="514"/>
       <c r="F36" s="416" t="s">
         <v>171</v>
       </c>
@@ -10753,11 +10747,11 @@
       <c r="Q36" s="317"/>
     </row>
     <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="515"/>
-      <c r="B37" s="520"/>
-      <c r="C37" s="511"/>
-      <c r="D37" s="522"/>
-      <c r="E37" s="511"/>
+      <c r="A37" s="511"/>
+      <c r="B37" s="513"/>
+      <c r="C37" s="515"/>
+      <c r="D37" s="517"/>
+      <c r="E37" s="515"/>
       <c r="F37" s="417" t="s">
         <v>172</v>
       </c>
@@ -10789,19 +10783,19 @@
       <c r="Q37" s="317"/>
     </row>
     <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="514">
+      <c r="A38" s="510">
         <v>657</v>
       </c>
-      <c r="B38" s="519">
+      <c r="B38" s="512">
         <v>44053</v>
       </c>
-      <c r="C38" s="519" t="s">
+      <c r="C38" s="512" t="s">
         <v>268</v>
       </c>
-      <c r="D38" s="530" t="s">
+      <c r="D38" s="562" t="s">
         <v>269</v>
       </c>
-      <c r="E38" s="519"/>
+      <c r="E38" s="512"/>
       <c r="F38" s="304" t="s">
         <v>171</v>
       </c>
@@ -10830,11 +10824,11 @@
       <c r="Q38" s="317"/>
     </row>
     <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="516"/>
-      <c r="B39" s="529"/>
-      <c r="C39" s="529"/>
-      <c r="D39" s="531"/>
-      <c r="E39" s="529"/>
+      <c r="A39" s="518"/>
+      <c r="B39" s="524"/>
+      <c r="C39" s="524"/>
+      <c r="D39" s="563"/>
+      <c r="E39" s="524"/>
       <c r="F39" s="309" t="s">
         <v>172</v>
       </c>
@@ -10863,11 +10857,11 @@
       <c r="Q39" s="317"/>
     </row>
     <row r="40" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="516"/>
-      <c r="B40" s="529"/>
-      <c r="C40" s="529"/>
-      <c r="D40" s="531"/>
-      <c r="E40" s="529"/>
+      <c r="A40" s="518"/>
+      <c r="B40" s="524"/>
+      <c r="C40" s="524"/>
+      <c r="D40" s="563"/>
+      <c r="E40" s="524"/>
       <c r="F40" s="309" t="s">
         <v>182</v>
       </c>
@@ -10896,11 +10890,11 @@
       <c r="Q40" s="317"/>
     </row>
     <row r="41" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="516"/>
-      <c r="B41" s="529"/>
-      <c r="C41" s="529"/>
-      <c r="D41" s="531"/>
-      <c r="E41" s="529"/>
+      <c r="A41" s="518"/>
+      <c r="B41" s="524"/>
+      <c r="C41" s="524"/>
+      <c r="D41" s="563"/>
+      <c r="E41" s="524"/>
       <c r="F41" s="309" t="s">
         <v>169</v>
       </c>
@@ -10929,11 +10923,11 @@
       <c r="Q41" s="317"/>
     </row>
     <row r="42" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="516"/>
-      <c r="B42" s="529"/>
-      <c r="C42" s="529"/>
-      <c r="D42" s="531"/>
-      <c r="E42" s="529"/>
+      <c r="A42" s="518"/>
+      <c r="B42" s="524"/>
+      <c r="C42" s="524"/>
+      <c r="D42" s="563"/>
+      <c r="E42" s="524"/>
       <c r="F42" s="309" t="s">
         <v>173</v>
       </c>
@@ -10962,11 +10956,11 @@
       <c r="Q42" s="317"/>
     </row>
     <row r="43" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="516"/>
-      <c r="B43" s="529"/>
-      <c r="C43" s="529"/>
-      <c r="D43" s="531"/>
-      <c r="E43" s="529"/>
+      <c r="A43" s="518"/>
+      <c r="B43" s="524"/>
+      <c r="C43" s="524"/>
+      <c r="D43" s="563"/>
+      <c r="E43" s="524"/>
       <c r="F43" s="309" t="s">
         <v>175</v>
       </c>
@@ -10995,11 +10989,11 @@
       <c r="Q43" s="317"/>
     </row>
     <row r="44" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="516"/>
-      <c r="B44" s="529"/>
-      <c r="C44" s="529"/>
-      <c r="D44" s="531"/>
-      <c r="E44" s="529"/>
+      <c r="A44" s="518"/>
+      <c r="B44" s="524"/>
+      <c r="C44" s="524"/>
+      <c r="D44" s="563"/>
+      <c r="E44" s="524"/>
       <c r="F44" s="309" t="s">
         <v>183</v>
       </c>
@@ -11028,11 +11022,11 @@
       <c r="Q44" s="317"/>
     </row>
     <row r="45" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="515"/>
-      <c r="B45" s="520"/>
-      <c r="C45" s="520"/>
-      <c r="D45" s="532"/>
-      <c r="E45" s="520"/>
+      <c r="A45" s="511"/>
+      <c r="B45" s="513"/>
+      <c r="C45" s="513"/>
+      <c r="D45" s="564"/>
+      <c r="E45" s="513"/>
       <c r="F45" s="305" t="s">
         <v>184</v>
       </c>
@@ -11103,19 +11097,19 @@
       <c r="Q46" s="317"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="535">
+      <c r="A47" s="538">
         <v>639</v>
       </c>
-      <c r="B47" s="539">
+      <c r="B47" s="527">
         <v>44055</v>
       </c>
-      <c r="C47" s="533" t="s">
+      <c r="C47" s="525" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="537" t="s">
+      <c r="D47" s="559" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="533"/>
+      <c r="E47" s="525"/>
       <c r="F47" s="308" t="s">
         <v>169</v>
       </c>
@@ -11146,11 +11140,11 @@
       <c r="P47" s="348"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="524"/>
-      <c r="B48" s="564"/>
-      <c r="C48" s="528"/>
-      <c r="D48" s="541"/>
-      <c r="E48" s="528"/>
+      <c r="A48" s="539"/>
+      <c r="B48" s="528"/>
+      <c r="C48" s="526"/>
+      <c r="D48" s="561"/>
+      <c r="E48" s="526"/>
       <c r="F48" s="305" t="s">
         <v>184</v>
       </c>
@@ -11181,19 +11175,19 @@
       <c r="P48" s="342"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="523">
+      <c r="A49" s="537">
         <v>640</v>
       </c>
-      <c r="B49" s="538">
+      <c r="B49" s="560">
         <v>44055</v>
       </c>
-      <c r="C49" s="527" t="s">
+      <c r="C49" s="530" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="536" t="s">
+      <c r="D49" s="558" t="s">
         <v>190</v>
       </c>
-      <c r="E49" s="527" t="s">
+      <c r="E49" s="530" t="s">
         <v>191</v>
       </c>
       <c r="F49" s="304" t="s">
@@ -11226,11 +11220,11 @@
       <c r="P49" s="304"/>
     </row>
     <row r="50" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="535"/>
-      <c r="B50" s="539"/>
-      <c r="C50" s="533"/>
-      <c r="D50" s="537"/>
-      <c r="E50" s="533"/>
+      <c r="A50" s="538"/>
+      <c r="B50" s="527"/>
+      <c r="C50" s="525"/>
+      <c r="D50" s="559"/>
+      <c r="E50" s="525"/>
       <c r="F50" s="307" t="s">
         <v>184</v>
       </c>
@@ -11261,19 +11255,19 @@
       <c r="P50" s="307"/>
     </row>
     <row r="51" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="514">
+      <c r="A51" s="510">
         <v>641</v>
       </c>
-      <c r="B51" s="519">
+      <c r="B51" s="512">
         <v>44055</v>
       </c>
-      <c r="C51" s="510" t="s">
+      <c r="C51" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="D51" s="521" t="s">
+      <c r="D51" s="516" t="s">
         <v>193</v>
       </c>
-      <c r="E51" s="510" t="s">
+      <c r="E51" s="514" t="s">
         <v>192</v>
       </c>
       <c r="F51" s="304" t="s">
@@ -11306,11 +11300,11 @@
       <c r="P51" s="304"/>
     </row>
     <row r="52" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="516"/>
-      <c r="B52" s="529"/>
-      <c r="C52" s="518"/>
-      <c r="D52" s="540"/>
-      <c r="E52" s="518"/>
+      <c r="A52" s="518"/>
+      <c r="B52" s="524"/>
+      <c r="C52" s="522"/>
+      <c r="D52" s="523"/>
+      <c r="E52" s="522"/>
       <c r="F52" s="309" t="s">
         <v>171</v>
       </c>
@@ -11341,11 +11335,11 @@
       <c r="P52" s="309"/>
     </row>
     <row r="53" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="516"/>
-      <c r="B53" s="529"/>
-      <c r="C53" s="518"/>
-      <c r="D53" s="540"/>
-      <c r="E53" s="518"/>
+      <c r="A53" s="518"/>
+      <c r="B53" s="524"/>
+      <c r="C53" s="522"/>
+      <c r="D53" s="523"/>
+      <c r="E53" s="522"/>
       <c r="F53" s="309" t="s">
         <v>172</v>
       </c>
@@ -11376,11 +11370,11 @@
       <c r="P53" s="309"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="516"/>
-      <c r="B54" s="529"/>
-      <c r="C54" s="518"/>
-      <c r="D54" s="540"/>
-      <c r="E54" s="518"/>
+      <c r="A54" s="518"/>
+      <c r="B54" s="524"/>
+      <c r="C54" s="522"/>
+      <c r="D54" s="523"/>
+      <c r="E54" s="522"/>
       <c r="F54" s="309" t="s">
         <v>182</v>
       </c>
@@ -11411,11 +11405,11 @@
       <c r="P54" s="309"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="516"/>
-      <c r="B55" s="529"/>
-      <c r="C55" s="518"/>
-      <c r="D55" s="540"/>
-      <c r="E55" s="518"/>
+      <c r="A55" s="518"/>
+      <c r="B55" s="524"/>
+      <c r="C55" s="522"/>
+      <c r="D55" s="523"/>
+      <c r="E55" s="522"/>
       <c r="F55" s="309" t="s">
         <v>169</v>
       </c>
@@ -11446,11 +11440,11 @@
       <c r="P55" s="309"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="516"/>
-      <c r="B56" s="529"/>
-      <c r="C56" s="518"/>
-      <c r="D56" s="540"/>
-      <c r="E56" s="518"/>
+      <c r="A56" s="518"/>
+      <c r="B56" s="524"/>
+      <c r="C56" s="522"/>
+      <c r="D56" s="523"/>
+      <c r="E56" s="522"/>
       <c r="F56" s="309" t="s">
         <v>173</v>
       </c>
@@ -11481,11 +11475,11 @@
       <c r="P56" s="309"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="516"/>
-      <c r="B57" s="529"/>
-      <c r="C57" s="518"/>
-      <c r="D57" s="540"/>
-      <c r="E57" s="518"/>
+      <c r="A57" s="518"/>
+      <c r="B57" s="524"/>
+      <c r="C57" s="522"/>
+      <c r="D57" s="523"/>
+      <c r="E57" s="522"/>
       <c r="F57" s="309" t="s">
         <v>175</v>
       </c>
@@ -11516,11 +11510,11 @@
       <c r="P57" s="309"/>
     </row>
     <row r="58" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="516"/>
-      <c r="B58" s="529"/>
-      <c r="C58" s="518"/>
-      <c r="D58" s="540"/>
-      <c r="E58" s="518"/>
+      <c r="A58" s="518"/>
+      <c r="B58" s="524"/>
+      <c r="C58" s="522"/>
+      <c r="D58" s="523"/>
+      <c r="E58" s="522"/>
       <c r="F58" s="309" t="s">
         <v>183</v>
       </c>
@@ -11551,11 +11545,11 @@
       <c r="P58" s="309"/>
     </row>
     <row r="59" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="515"/>
-      <c r="B59" s="520"/>
-      <c r="C59" s="511"/>
-      <c r="D59" s="522"/>
-      <c r="E59" s="511"/>
+      <c r="A59" s="511"/>
+      <c r="B59" s="513"/>
+      <c r="C59" s="515"/>
+      <c r="D59" s="517"/>
+      <c r="E59" s="515"/>
       <c r="F59" s="305" t="s">
         <v>184</v>
       </c>
@@ -11631,19 +11625,19 @@
       <c r="P60" s="306"/>
     </row>
     <row r="61" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="514">
+      <c r="A61" s="510">
         <v>645</v>
       </c>
-      <c r="B61" s="519">
+      <c r="B61" s="512">
         <v>44056</v>
       </c>
-      <c r="C61" s="510" t="s">
+      <c r="C61" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="521" t="s">
+      <c r="D61" s="516" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="510" t="s">
+      <c r="E61" s="514" t="s">
         <v>192</v>
       </c>
       <c r="F61" s="304" t="s">
@@ -11677,11 +11671,11 @@
       <c r="Q61" s="317"/>
     </row>
     <row r="62" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="516"/>
-      <c r="B62" s="529"/>
-      <c r="C62" s="518"/>
-      <c r="D62" s="540"/>
-      <c r="E62" s="518"/>
+      <c r="A62" s="518"/>
+      <c r="B62" s="524"/>
+      <c r="C62" s="522"/>
+      <c r="D62" s="523"/>
+      <c r="E62" s="522"/>
       <c r="F62" s="309" t="s">
         <v>172</v>
       </c>
@@ -11713,11 +11707,11 @@
       <c r="Q62" s="317"/>
     </row>
     <row r="63" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="516"/>
-      <c r="B63" s="529"/>
-      <c r="C63" s="518"/>
-      <c r="D63" s="540"/>
-      <c r="E63" s="518"/>
+      <c r="A63" s="518"/>
+      <c r="B63" s="524"/>
+      <c r="C63" s="522"/>
+      <c r="D63" s="523"/>
+      <c r="E63" s="522"/>
       <c r="F63" s="309" t="s">
         <v>182</v>
       </c>
@@ -11749,11 +11743,11 @@
       <c r="Q63" s="317"/>
     </row>
     <row r="64" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="516"/>
-      <c r="B64" s="529"/>
-      <c r="C64" s="518"/>
-      <c r="D64" s="540"/>
-      <c r="E64" s="518"/>
+      <c r="A64" s="518"/>
+      <c r="B64" s="524"/>
+      <c r="C64" s="522"/>
+      <c r="D64" s="523"/>
+      <c r="E64" s="522"/>
       <c r="F64" s="429" t="s">
         <v>169</v>
       </c>
@@ -11785,11 +11779,11 @@
       <c r="Q64" s="317"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="516"/>
-      <c r="B65" s="529"/>
-      <c r="C65" s="518"/>
-      <c r="D65" s="540"/>
-      <c r="E65" s="518"/>
+      <c r="A65" s="518"/>
+      <c r="B65" s="524"/>
+      <c r="C65" s="522"/>
+      <c r="D65" s="523"/>
+      <c r="E65" s="522"/>
       <c r="F65" s="309" t="s">
         <v>173</v>
       </c>
@@ -11821,11 +11815,11 @@
       <c r="Q65" s="317"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="516"/>
-      <c r="B66" s="529"/>
-      <c r="C66" s="518"/>
-      <c r="D66" s="540"/>
-      <c r="E66" s="518"/>
+      <c r="A66" s="518"/>
+      <c r="B66" s="524"/>
+      <c r="C66" s="522"/>
+      <c r="D66" s="523"/>
+      <c r="E66" s="522"/>
       <c r="F66" s="309" t="s">
         <v>175</v>
       </c>
@@ -11857,11 +11851,11 @@
       <c r="Q66" s="317"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="516"/>
-      <c r="B67" s="529"/>
-      <c r="C67" s="518"/>
-      <c r="D67" s="540"/>
-      <c r="E67" s="518"/>
+      <c r="A67" s="518"/>
+      <c r="B67" s="524"/>
+      <c r="C67" s="522"/>
+      <c r="D67" s="523"/>
+      <c r="E67" s="522"/>
       <c r="F67" s="309" t="s">
         <v>183</v>
       </c>
@@ -11893,11 +11887,11 @@
       <c r="Q67" s="317"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="515"/>
-      <c r="B68" s="520"/>
-      <c r="C68" s="511"/>
-      <c r="D68" s="522"/>
-      <c r="E68" s="511"/>
+      <c r="A68" s="511"/>
+      <c r="B68" s="513"/>
+      <c r="C68" s="515"/>
+      <c r="D68" s="517"/>
+      <c r="E68" s="515"/>
       <c r="F68" s="305" t="s">
         <v>184</v>
       </c>
@@ -11929,19 +11923,19 @@
       <c r="Q68" s="317"/>
     </row>
     <row r="69" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="514">
+      <c r="A69" s="510">
         <v>647</v>
       </c>
-      <c r="B69" s="519">
+      <c r="B69" s="512">
         <v>44056</v>
       </c>
-      <c r="C69" s="510" t="s">
+      <c r="C69" s="514" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="521" t="s">
+      <c r="D69" s="516" t="s">
         <v>196</v>
       </c>
-      <c r="E69" s="510" t="s">
+      <c r="E69" s="514" t="s">
         <v>197</v>
       </c>
       <c r="F69" s="304" t="s">
@@ -11971,17 +11965,17 @@
       </c>
       <c r="N69" s="313"/>
       <c r="O69" s="313"/>
-      <c r="P69" s="560" t="s">
+      <c r="P69" s="534" t="s">
         <v>198</v>
       </c>
       <c r="Q69" s="317"/>
     </row>
     <row r="70" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="515"/>
-      <c r="B70" s="520"/>
-      <c r="C70" s="511"/>
-      <c r="D70" s="522"/>
-      <c r="E70" s="511"/>
+      <c r="A70" s="511"/>
+      <c r="B70" s="513"/>
+      <c r="C70" s="515"/>
+      <c r="D70" s="517"/>
+      <c r="E70" s="515"/>
       <c r="F70" s="305" t="s">
         <v>172</v>
       </c>
@@ -12009,7 +12003,7 @@
       </c>
       <c r="N70" s="318"/>
       <c r="O70" s="318"/>
-      <c r="P70" s="561"/>
+      <c r="P70" s="535"/>
       <c r="Q70" s="317"/>
     </row>
     <row r="71" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -12054,19 +12048,19 @@
       <c r="Q71" s="317"/>
     </row>
     <row r="72" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="514">
+      <c r="A72" s="510">
         <v>650</v>
       </c>
-      <c r="B72" s="519">
+      <c r="B72" s="512">
         <v>44057</v>
       </c>
-      <c r="C72" s="510" t="s">
+      <c r="C72" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="521" t="s">
+      <c r="D72" s="516" t="s">
         <v>193</v>
       </c>
-      <c r="E72" s="510" t="s">
+      <c r="E72" s="514" t="s">
         <v>192</v>
       </c>
       <c r="F72" s="304" t="s">
@@ -12100,11 +12094,11 @@
       <c r="Q72" s="317"/>
     </row>
     <row r="73" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="516"/>
-      <c r="B73" s="529"/>
-      <c r="C73" s="518"/>
-      <c r="D73" s="540"/>
-      <c r="E73" s="518"/>
+      <c r="A73" s="518"/>
+      <c r="B73" s="524"/>
+      <c r="C73" s="522"/>
+      <c r="D73" s="523"/>
+      <c r="E73" s="522"/>
       <c r="F73" s="309" t="s">
         <v>172</v>
       </c>
@@ -12136,11 +12130,11 @@
       <c r="Q73" s="317"/>
     </row>
     <row r="74" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="516"/>
-      <c r="B74" s="529"/>
-      <c r="C74" s="518"/>
-      <c r="D74" s="540"/>
-      <c r="E74" s="518"/>
+      <c r="A74" s="518"/>
+      <c r="B74" s="524"/>
+      <c r="C74" s="522"/>
+      <c r="D74" s="523"/>
+      <c r="E74" s="522"/>
       <c r="F74" s="309" t="s">
         <v>182</v>
       </c>
@@ -12172,11 +12166,11 @@
       <c r="Q74" s="317"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="516"/>
-      <c r="B75" s="529"/>
-      <c r="C75" s="518"/>
-      <c r="D75" s="540"/>
-      <c r="E75" s="518"/>
+      <c r="A75" s="518"/>
+      <c r="B75" s="524"/>
+      <c r="C75" s="522"/>
+      <c r="D75" s="523"/>
+      <c r="E75" s="522"/>
       <c r="F75" s="309" t="s">
         <v>169</v>
       </c>
@@ -12208,11 +12202,11 @@
       <c r="Q75" s="317"/>
     </row>
     <row r="76" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="516"/>
-      <c r="B76" s="529"/>
-      <c r="C76" s="518"/>
-      <c r="D76" s="540"/>
-      <c r="E76" s="518"/>
+      <c r="A76" s="518"/>
+      <c r="B76" s="524"/>
+      <c r="C76" s="522"/>
+      <c r="D76" s="523"/>
+      <c r="E76" s="522"/>
       <c r="F76" s="309" t="s">
         <v>183</v>
       </c>
@@ -12244,11 +12238,11 @@
       <c r="Q76" s="317"/>
     </row>
     <row r="77" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="515"/>
-      <c r="B77" s="520"/>
-      <c r="C77" s="511"/>
-      <c r="D77" s="522"/>
-      <c r="E77" s="511"/>
+      <c r="A77" s="511"/>
+      <c r="B77" s="513"/>
+      <c r="C77" s="515"/>
+      <c r="D77" s="517"/>
+      <c r="E77" s="515"/>
       <c r="F77" s="305" t="s">
         <v>184</v>
       </c>
@@ -12280,17 +12274,17 @@
       <c r="Q77" s="317"/>
     </row>
     <row r="78" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="514">
+      <c r="A78" s="510">
         <v>751</v>
       </c>
-      <c r="B78" s="519">
+      <c r="B78" s="512">
         <v>44060</v>
       </c>
-      <c r="C78" s="510"/>
-      <c r="D78" s="521" t="s">
+      <c r="C78" s="514"/>
+      <c r="D78" s="516" t="s">
         <v>199</v>
       </c>
-      <c r="E78" s="510" t="s">
+      <c r="E78" s="514" t="s">
         <v>200</v>
       </c>
       <c r="F78" s="304" t="s">
@@ -12326,11 +12320,11 @@
       <c r="Q78" s="317"/>
     </row>
     <row r="79" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="516"/>
-      <c r="B79" s="529"/>
-      <c r="C79" s="518"/>
-      <c r="D79" s="540"/>
-      <c r="E79" s="518"/>
+      <c r="A79" s="518"/>
+      <c r="B79" s="524"/>
+      <c r="C79" s="522"/>
+      <c r="D79" s="523"/>
+      <c r="E79" s="522"/>
       <c r="F79" s="309" t="s">
         <v>171</v>
       </c>
@@ -12361,11 +12355,11 @@
       <c r="P79" s="351"/>
     </row>
     <row r="80" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="516"/>
-      <c r="B80" s="529"/>
-      <c r="C80" s="518"/>
-      <c r="D80" s="540"/>
-      <c r="E80" s="518"/>
+      <c r="A80" s="518"/>
+      <c r="B80" s="524"/>
+      <c r="C80" s="522"/>
+      <c r="D80" s="523"/>
+      <c r="E80" s="522"/>
       <c r="F80" s="309" t="s">
         <v>169</v>
       </c>
@@ -12396,11 +12390,11 @@
       <c r="P80" s="351"/>
     </row>
     <row r="81" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="515"/>
-      <c r="B81" s="520"/>
-      <c r="C81" s="511"/>
-      <c r="D81" s="522"/>
-      <c r="E81" s="511"/>
+      <c r="A81" s="511"/>
+      <c r="B81" s="513"/>
+      <c r="C81" s="515"/>
+      <c r="D81" s="517"/>
+      <c r="E81" s="515"/>
       <c r="F81" s="305" t="s">
         <v>184</v>
       </c>
@@ -12521,19 +12515,19 @@
       <c r="P83" s="353"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="514">
+      <c r="A84" s="510">
         <v>757</v>
       </c>
-      <c r="B84" s="512">
+      <c r="B84" s="519">
         <v>44061</v>
       </c>
-      <c r="C84" s="563" t="s">
+      <c r="C84" s="529" t="s">
         <v>399</v>
       </c>
-      <c r="D84" s="510" t="s">
+      <c r="D84" s="514" t="s">
         <v>205</v>
       </c>
-      <c r="E84" s="510" t="s">
+      <c r="E84" s="514" t="s">
         <v>206</v>
       </c>
       <c r="F84" s="304" t="s">
@@ -12566,11 +12560,11 @@
       <c r="P84" s="343"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="516"/>
-      <c r="B85" s="517"/>
-      <c r="C85" s="540"/>
-      <c r="D85" s="518"/>
-      <c r="E85" s="518"/>
+      <c r="A85" s="518"/>
+      <c r="B85" s="520"/>
+      <c r="C85" s="523"/>
+      <c r="D85" s="522"/>
+      <c r="E85" s="522"/>
       <c r="F85" s="309" t="s">
         <v>172</v>
       </c>
@@ -12601,11 +12595,11 @@
       <c r="P85" s="351"/>
     </row>
     <row r="86" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="516"/>
-      <c r="B86" s="517"/>
-      <c r="C86" s="540"/>
-      <c r="D86" s="518"/>
-      <c r="E86" s="518"/>
+      <c r="A86" s="518"/>
+      <c r="B86" s="520"/>
+      <c r="C86" s="523"/>
+      <c r="D86" s="522"/>
+      <c r="E86" s="522"/>
       <c r="F86" s="309" t="s">
         <v>182</v>
       </c>
@@ -12636,11 +12630,11 @@
       <c r="P86" s="351"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="516"/>
-      <c r="B87" s="517"/>
-      <c r="C87" s="540"/>
-      <c r="D87" s="518"/>
-      <c r="E87" s="518"/>
+      <c r="A87" s="518"/>
+      <c r="B87" s="520"/>
+      <c r="C87" s="523"/>
+      <c r="D87" s="522"/>
+      <c r="E87" s="522"/>
       <c r="F87" s="309" t="s">
         <v>169</v>
       </c>
@@ -12671,11 +12665,11 @@
       <c r="P87" s="351"/>
     </row>
     <row r="88" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="516"/>
-      <c r="B88" s="517"/>
-      <c r="C88" s="540"/>
-      <c r="D88" s="518"/>
-      <c r="E88" s="518"/>
+      <c r="A88" s="518"/>
+      <c r="B88" s="520"/>
+      <c r="C88" s="523"/>
+      <c r="D88" s="522"/>
+      <c r="E88" s="522"/>
       <c r="F88" s="309" t="s">
         <v>183</v>
       </c>
@@ -12706,11 +12700,11 @@
       <c r="P88" s="309"/>
     </row>
     <row r="89" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="515"/>
-      <c r="B89" s="513"/>
-      <c r="C89" s="522"/>
-      <c r="D89" s="511"/>
-      <c r="E89" s="511"/>
+      <c r="A89" s="511"/>
+      <c r="B89" s="521"/>
+      <c r="C89" s="517"/>
+      <c r="D89" s="515"/>
+      <c r="E89" s="515"/>
       <c r="F89" s="305" t="s">
         <v>184</v>
       </c>
@@ -12741,17 +12735,17 @@
       <c r="P89" s="305"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="523">
+      <c r="A90" s="537">
         <v>761</v>
       </c>
-      <c r="B90" s="525">
+      <c r="B90" s="540">
         <v>44063</v>
       </c>
-      <c r="C90" s="527"/>
-      <c r="D90" s="527" t="s">
+      <c r="C90" s="530"/>
+      <c r="D90" s="530" t="s">
         <v>199</v>
       </c>
-      <c r="E90" s="527" t="s">
+      <c r="E90" s="530" t="s">
         <v>200</v>
       </c>
       <c r="F90" s="304" t="s">
@@ -12786,11 +12780,11 @@
       <c r="P90" s="300"/>
     </row>
     <row r="91" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="535"/>
-      <c r="B91" s="534"/>
-      <c r="C91" s="533"/>
-      <c r="D91" s="533"/>
-      <c r="E91" s="533"/>
+      <c r="A91" s="538"/>
+      <c r="B91" s="541"/>
+      <c r="C91" s="525"/>
+      <c r="D91" s="525"/>
+      <c r="E91" s="525"/>
       <c r="F91" s="307" t="s">
         <v>182</v>
       </c>
@@ -12821,19 +12815,19 @@
       <c r="P91" s="354"/>
     </row>
     <row r="92" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="514">
+      <c r="A92" s="510">
         <v>762</v>
       </c>
-      <c r="B92" s="512">
+      <c r="B92" s="519">
         <v>44063</v>
       </c>
-      <c r="C92" s="510" t="s">
+      <c r="C92" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="D92" s="510" t="s">
+      <c r="D92" s="514" t="s">
         <v>207</v>
       </c>
-      <c r="E92" s="510"/>
+      <c r="E92" s="514"/>
       <c r="F92" s="304" t="s">
         <v>188</v>
       </c>
@@ -12864,11 +12858,11 @@
       <c r="P92" s="300"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="516"/>
-      <c r="B93" s="517"/>
-      <c r="C93" s="518"/>
-      <c r="D93" s="518"/>
-      <c r="E93" s="518"/>
+      <c r="A93" s="518"/>
+      <c r="B93" s="520"/>
+      <c r="C93" s="522"/>
+      <c r="D93" s="522"/>
+      <c r="E93" s="522"/>
       <c r="F93" s="309" t="s">
         <v>171</v>
       </c>
@@ -12899,11 +12893,11 @@
       <c r="P93" s="309"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="516"/>
-      <c r="B94" s="517"/>
-      <c r="C94" s="518"/>
-      <c r="D94" s="518"/>
-      <c r="E94" s="518"/>
+      <c r="A94" s="518"/>
+      <c r="B94" s="520"/>
+      <c r="C94" s="522"/>
+      <c r="D94" s="522"/>
+      <c r="E94" s="522"/>
       <c r="F94" s="309" t="s">
         <v>172</v>
       </c>
@@ -12934,11 +12928,11 @@
       <c r="P94" s="297"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="515"/>
-      <c r="B95" s="513"/>
-      <c r="C95" s="511"/>
-      <c r="D95" s="511"/>
-      <c r="E95" s="511"/>
+      <c r="A95" s="511"/>
+      <c r="B95" s="521"/>
+      <c r="C95" s="515"/>
+      <c r="D95" s="515"/>
+      <c r="E95" s="515"/>
       <c r="F95" s="305" t="s">
         <v>184</v>
       </c>
@@ -12969,17 +12963,17 @@
       <c r="P95" s="299"/>
     </row>
     <row r="96" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="514">
+      <c r="A96" s="510">
         <v>763</v>
       </c>
-      <c r="B96" s="512">
+      <c r="B96" s="519">
         <v>44063</v>
       </c>
-      <c r="C96" s="510"/>
-      <c r="D96" s="510" t="s">
+      <c r="C96" s="514"/>
+      <c r="D96" s="514" t="s">
         <v>178</v>
       </c>
-      <c r="E96" s="510" t="s">
+      <c r="E96" s="514" t="s">
         <v>179</v>
       </c>
       <c r="F96" s="304" t="s">
@@ -13012,11 +13006,11 @@
       <c r="P96" s="300"/>
     </row>
     <row r="97" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="516"/>
-      <c r="B97" s="517"/>
-      <c r="C97" s="518"/>
-      <c r="D97" s="518"/>
-      <c r="E97" s="518"/>
+      <c r="A97" s="518"/>
+      <c r="B97" s="520"/>
+      <c r="C97" s="522"/>
+      <c r="D97" s="522"/>
+      <c r="E97" s="522"/>
       <c r="F97" s="309" t="s">
         <v>171</v>
       </c>
@@ -13047,11 +13041,11 @@
       <c r="P97" s="297"/>
     </row>
     <row r="98" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="515"/>
-      <c r="B98" s="513"/>
-      <c r="C98" s="511"/>
-      <c r="D98" s="511"/>
-      <c r="E98" s="511"/>
+      <c r="A98" s="511"/>
+      <c r="B98" s="521"/>
+      <c r="C98" s="515"/>
+      <c r="D98" s="515"/>
+      <c r="E98" s="515"/>
       <c r="F98" s="305" t="s">
         <v>169</v>
       </c>
@@ -13082,17 +13076,17 @@
       <c r="P98" s="299"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="523">
+      <c r="A99" s="537">
         <v>764</v>
       </c>
-      <c r="B99" s="525">
+      <c r="B99" s="540">
         <v>44065</v>
       </c>
-      <c r="C99" s="527"/>
-      <c r="D99" s="527" t="s">
+      <c r="C99" s="530"/>
+      <c r="D99" s="530" t="s">
         <v>178</v>
       </c>
-      <c r="E99" s="527" t="s">
+      <c r="E99" s="530" t="s">
         <v>179</v>
       </c>
       <c r="F99" s="308" t="s">
@@ -13125,11 +13119,11 @@
       <c r="P99" s="312"/>
     </row>
     <row r="100" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="535"/>
-      <c r="B100" s="534"/>
-      <c r="C100" s="533"/>
-      <c r="D100" s="533"/>
-      <c r="E100" s="533"/>
+      <c r="A100" s="538"/>
+      <c r="B100" s="541"/>
+      <c r="C100" s="525"/>
+      <c r="D100" s="525"/>
+      <c r="E100" s="525"/>
       <c r="F100" s="309" t="s">
         <v>172</v>
       </c>
@@ -13160,11 +13154,11 @@
       <c r="P100" s="312"/>
     </row>
     <row r="101" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="535"/>
-      <c r="B101" s="534"/>
-      <c r="C101" s="533"/>
-      <c r="D101" s="533"/>
-      <c r="E101" s="533"/>
+      <c r="A101" s="538"/>
+      <c r="B101" s="541"/>
+      <c r="C101" s="525"/>
+      <c r="D101" s="525"/>
+      <c r="E101" s="525"/>
       <c r="F101" s="309" t="s">
         <v>182</v>
       </c>
@@ -13195,11 +13189,11 @@
       <c r="P101" s="312"/>
     </row>
     <row r="102" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="524"/>
-      <c r="B102" s="526"/>
-      <c r="C102" s="528"/>
-      <c r="D102" s="528"/>
-      <c r="E102" s="528"/>
+      <c r="A102" s="539"/>
+      <c r="B102" s="542"/>
+      <c r="C102" s="526"/>
+      <c r="D102" s="526"/>
+      <c r="E102" s="526"/>
       <c r="F102" s="305" t="s">
         <v>184</v>
       </c>
@@ -13230,17 +13224,17 @@
       <c r="P102" s="325"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="523">
+      <c r="A103" s="537">
         <v>660</v>
       </c>
-      <c r="B103" s="525">
+      <c r="B103" s="540">
         <v>44065</v>
       </c>
-      <c r="C103" s="527"/>
-      <c r="D103" s="527" t="s">
+      <c r="C103" s="530"/>
+      <c r="D103" s="530" t="s">
         <v>219</v>
       </c>
-      <c r="E103" s="527" t="s">
+      <c r="E103" s="530" t="s">
         <v>179</v>
       </c>
       <c r="F103" s="304" t="s">
@@ -13273,11 +13267,11 @@
       <c r="P103" s="296"/>
     </row>
     <row r="104" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="535"/>
-      <c r="B104" s="534"/>
-      <c r="C104" s="533"/>
-      <c r="D104" s="533"/>
-      <c r="E104" s="533"/>
+      <c r="A104" s="538"/>
+      <c r="B104" s="541"/>
+      <c r="C104" s="525"/>
+      <c r="D104" s="525"/>
+      <c r="E104" s="525"/>
       <c r="F104" s="309" t="s">
         <v>171</v>
       </c>
@@ -13308,11 +13302,11 @@
       <c r="P104" s="312"/>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="535"/>
-      <c r="B105" s="534"/>
-      <c r="C105" s="533"/>
-      <c r="D105" s="533"/>
-      <c r="E105" s="533"/>
+      <c r="A105" s="538"/>
+      <c r="B105" s="541"/>
+      <c r="C105" s="525"/>
+      <c r="D105" s="525"/>
+      <c r="E105" s="525"/>
       <c r="F105" s="307" t="s">
         <v>173</v>
       </c>
@@ -13343,17 +13337,17 @@
       <c r="P105" s="312"/>
     </row>
     <row r="106" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="523">
+      <c r="A106" s="537">
         <v>773</v>
       </c>
-      <c r="B106" s="525">
+      <c r="B106" s="540">
         <v>44066</v>
       </c>
-      <c r="C106" s="527"/>
-      <c r="D106" s="527" t="s">
+      <c r="C106" s="530"/>
+      <c r="D106" s="530" t="s">
         <v>275</v>
       </c>
-      <c r="E106" s="527" t="s">
+      <c r="E106" s="530" t="s">
         <v>276</v>
       </c>
       <c r="F106" s="304" t="s">
@@ -13386,11 +13380,11 @@
       <c r="P106" s="300"/>
     </row>
     <row r="107" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="524"/>
-      <c r="B107" s="526"/>
-      <c r="C107" s="528"/>
-      <c r="D107" s="528"/>
-      <c r="E107" s="528"/>
+      <c r="A107" s="539"/>
+      <c r="B107" s="542"/>
+      <c r="C107" s="526"/>
+      <c r="D107" s="526"/>
+      <c r="E107" s="526"/>
       <c r="F107" s="305" t="s">
         <v>277</v>
       </c>
@@ -13421,19 +13415,19 @@
       <c r="P107" s="299"/>
     </row>
     <row r="108" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="514">
+      <c r="A108" s="510">
         <v>769</v>
       </c>
-      <c r="B108" s="512">
+      <c r="B108" s="519">
         <v>44068</v>
       </c>
-      <c r="C108" s="510" t="s">
+      <c r="C108" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="D108" s="510" t="s">
+      <c r="D108" s="514" t="s">
         <v>207</v>
       </c>
-      <c r="E108" s="510"/>
+      <c r="E108" s="514"/>
       <c r="F108" s="416" t="s">
         <v>188</v>
       </c>
@@ -13464,11 +13458,11 @@
       <c r="P108" s="300"/>
     </row>
     <row r="109" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="516"/>
-      <c r="B109" s="517"/>
-      <c r="C109" s="518"/>
-      <c r="D109" s="518"/>
-      <c r="E109" s="518"/>
+      <c r="A109" s="518"/>
+      <c r="B109" s="520"/>
+      <c r="C109" s="522"/>
+      <c r="D109" s="522"/>
+      <c r="E109" s="522"/>
       <c r="F109" s="418" t="s">
         <v>171</v>
       </c>
@@ -13499,11 +13493,11 @@
       <c r="P109" s="297"/>
     </row>
     <row r="110" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="516"/>
-      <c r="B110" s="517"/>
-      <c r="C110" s="518"/>
-      <c r="D110" s="518"/>
-      <c r="E110" s="518"/>
+      <c r="A110" s="518"/>
+      <c r="B110" s="520"/>
+      <c r="C110" s="522"/>
+      <c r="D110" s="522"/>
+      <c r="E110" s="522"/>
       <c r="F110" s="418" t="s">
         <v>220</v>
       </c>
@@ -13534,11 +13528,11 @@
       <c r="P110" s="297"/>
     </row>
     <row r="111" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="516"/>
-      <c r="B111" s="517"/>
-      <c r="C111" s="518"/>
-      <c r="D111" s="518"/>
-      <c r="E111" s="518"/>
+      <c r="A111" s="518"/>
+      <c r="B111" s="520"/>
+      <c r="C111" s="522"/>
+      <c r="D111" s="522"/>
+      <c r="E111" s="522"/>
       <c r="F111" s="418" t="s">
         <v>169</v>
       </c>
@@ -13569,11 +13563,11 @@
       <c r="P111" s="297"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="516"/>
-      <c r="B112" s="517"/>
-      <c r="C112" s="518"/>
-      <c r="D112" s="518"/>
-      <c r="E112" s="518"/>
+      <c r="A112" s="518"/>
+      <c r="B112" s="520"/>
+      <c r="C112" s="522"/>
+      <c r="D112" s="522"/>
+      <c r="E112" s="522"/>
       <c r="F112" s="418" t="s">
         <v>175</v>
       </c>
@@ -13604,11 +13598,11 @@
       <c r="P112" s="418"/>
     </row>
     <row r="113" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="515"/>
-      <c r="B113" s="513"/>
-      <c r="C113" s="511"/>
-      <c r="D113" s="511"/>
-      <c r="E113" s="511"/>
+      <c r="A113" s="511"/>
+      <c r="B113" s="521"/>
+      <c r="C113" s="515"/>
+      <c r="D113" s="515"/>
+      <c r="E113" s="515"/>
       <c r="F113" s="417" t="s">
         <v>184</v>
       </c>
@@ -13680,19 +13674,19 @@
       <c r="P114" s="298"/>
     </row>
     <row r="115" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="514">
+      <c r="A115" s="510">
         <v>777</v>
       </c>
-      <c r="B115" s="512">
+      <c r="B115" s="519">
         <v>44070</v>
       </c>
-      <c r="C115" s="510" t="s">
+      <c r="C115" s="514" t="s">
         <v>166</v>
       </c>
-      <c r="D115" s="510" t="s">
+      <c r="D115" s="514" t="s">
         <v>279</v>
       </c>
-      <c r="E115" s="510" t="s">
+      <c r="E115" s="514" t="s">
         <v>280</v>
       </c>
       <c r="F115" s="304" t="s">
@@ -13725,11 +13719,11 @@
       <c r="P115" s="304"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="515"/>
-      <c r="B116" s="513"/>
-      <c r="C116" s="511"/>
-      <c r="D116" s="511"/>
-      <c r="E116" s="511"/>
+      <c r="A116" s="511"/>
+      <c r="B116" s="521"/>
+      <c r="C116" s="515"/>
+      <c r="D116" s="515"/>
+      <c r="E116" s="515"/>
       <c r="F116" s="305" t="s">
         <v>184</v>
       </c>
@@ -13842,19 +13836,19 @@
       <c r="P118" s="298"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="514">
+      <c r="A119" s="510">
         <v>780</v>
       </c>
-      <c r="B119" s="512">
+      <c r="B119" s="519">
         <v>44071</v>
       </c>
-      <c r="C119" s="510" t="s">
+      <c r="C119" s="514" t="s">
         <v>186</v>
       </c>
-      <c r="D119" s="510" t="s">
+      <c r="D119" s="514" t="s">
         <v>282</v>
       </c>
-      <c r="E119" s="510"/>
+      <c r="E119" s="514"/>
       <c r="F119" s="304" t="s">
         <v>171</v>
       </c>
@@ -13885,11 +13879,11 @@
       <c r="P119" s="304"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="516"/>
-      <c r="B120" s="517"/>
-      <c r="C120" s="518"/>
-      <c r="D120" s="518"/>
-      <c r="E120" s="518"/>
+      <c r="A120" s="518"/>
+      <c r="B120" s="520"/>
+      <c r="C120" s="522"/>
+      <c r="D120" s="522"/>
+      <c r="E120" s="522"/>
       <c r="F120" s="309" t="s">
         <v>172</v>
       </c>
@@ -13920,11 +13914,11 @@
       <c r="P120" s="309"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="516"/>
-      <c r="B121" s="517"/>
-      <c r="C121" s="518"/>
-      <c r="D121" s="518"/>
-      <c r="E121" s="518"/>
+      <c r="A121" s="518"/>
+      <c r="B121" s="520"/>
+      <c r="C121" s="522"/>
+      <c r="D121" s="522"/>
+      <c r="E121" s="522"/>
       <c r="F121" s="309" t="s">
         <v>182</v>
       </c>
@@ -13955,11 +13949,11 @@
       <c r="P121" s="309"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="515"/>
-      <c r="B122" s="513"/>
-      <c r="C122" s="511"/>
-      <c r="D122" s="511"/>
-      <c r="E122" s="511"/>
+      <c r="A122" s="511"/>
+      <c r="B122" s="521"/>
+      <c r="C122" s="515"/>
+      <c r="D122" s="515"/>
+      <c r="E122" s="515"/>
       <c r="F122" s="305" t="s">
         <v>169</v>
       </c>
@@ -14031,14 +14025,14 @@
       <c r="P123" s="349"/>
     </row>
     <row r="124" spans="1:17" s="203" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A124" s="558" t="s">
+      <c r="A124" s="532" t="s">
         <v>76</v>
       </c>
-      <c r="B124" s="558"/>
-      <c r="C124" s="558"/>
-      <c r="D124" s="558"/>
-      <c r="E124" s="558"/>
-      <c r="F124" s="558"/>
+      <c r="B124" s="532"/>
+      <c r="C124" s="532"/>
+      <c r="D124" s="532"/>
+      <c r="E124" s="532"/>
+      <c r="F124" s="532"/>
       <c r="G124" s="231">
         <f>SUM(G13:G123)</f>
         <v>3224</v>
@@ -14057,18 +14051,18 @@
       <c r="M124" s="237"/>
       <c r="N124" s="237"/>
       <c r="O124" s="237"/>
-      <c r="P124" s="559"/>
-      <c r="Q124" s="562"/>
+      <c r="P124" s="533"/>
+      <c r="Q124" s="536"/>
     </row>
     <row r="125" spans="1:17" s="203" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A125" s="557" t="s">
+      <c r="A125" s="531" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="557"/>
-      <c r="C125" s="557"/>
-      <c r="D125" s="557"/>
-      <c r="E125" s="557"/>
-      <c r="F125" s="557"/>
+      <c r="B125" s="531"/>
+      <c r="C125" s="531"/>
+      <c r="D125" s="531"/>
+      <c r="E125" s="531"/>
+      <c r="F125" s="531"/>
       <c r="G125" s="197">
         <f>G124</f>
         <v>3224</v>
@@ -14084,18 +14078,18 @@
       <c r="M125" s="200"/>
       <c r="N125" s="200"/>
       <c r="O125" s="200"/>
-      <c r="P125" s="559"/>
-      <c r="Q125" s="562"/>
+      <c r="P125" s="533"/>
+      <c r="Q125" s="536"/>
     </row>
     <row r="126" spans="1:17" s="203" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A126" s="557" t="s">
+      <c r="A126" s="531" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="557"/>
-      <c r="C126" s="557"/>
-      <c r="D126" s="557"/>
-      <c r="E126" s="557"/>
-      <c r="F126" s="557"/>
+      <c r="B126" s="531"/>
+      <c r="C126" s="531"/>
+      <c r="D126" s="531"/>
+      <c r="E126" s="531"/>
+      <c r="F126" s="531"/>
       <c r="G126" s="204" t="s">
         <v>49</v>
       </c>
@@ -14112,14 +14106,14 @@
       <c r="O126" s="200"/>
     </row>
     <row r="127" spans="1:17" s="203" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A127" s="557" t="s">
+      <c r="A127" s="531" t="s">
         <v>78</v>
       </c>
-      <c r="B127" s="557"/>
-      <c r="C127" s="557"/>
-      <c r="D127" s="557"/>
-      <c r="E127" s="557"/>
-      <c r="F127" s="557"/>
+      <c r="B127" s="531"/>
+      <c r="C127" s="531"/>
+      <c r="D127" s="531"/>
+      <c r="E127" s="531"/>
+      <c r="F127" s="531"/>
       <c r="G127" s="204"/>
       <c r="H127" s="224"/>
       <c r="I127" s="198"/>
@@ -14134,14 +14128,14 @@
       <c r="O127" s="200"/>
     </row>
     <row r="128" spans="1:17" s="203" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A128" s="557" t="s">
+      <c r="A128" s="531" t="s">
         <v>79</v>
       </c>
-      <c r="B128" s="557"/>
-      <c r="C128" s="557"/>
-      <c r="D128" s="557"/>
-      <c r="E128" s="557"/>
-      <c r="F128" s="557"/>
+      <c r="B128" s="531"/>
+      <c r="C128" s="531"/>
+      <c r="D128" s="531"/>
+      <c r="E128" s="531"/>
+      <c r="F128" s="531"/>
       <c r="G128" s="204"/>
       <c r="H128" s="224"/>
       <c r="I128" s="198"/>
@@ -14217,6 +14211,137 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="155">
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="D38:D45"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E51:E59"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="P124:P125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="Q124:Q125"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="D108:D113"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="E99:E102"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D90:D91"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
@@ -14241,137 +14366,6 @@
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A108:A113"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="E61:E68"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="P124:P125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="Q124:Q125"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="D108:D113"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="E108:E113"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="E99:E102"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="E51:E59"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="D38:D45"/>
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="E119:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -14382,7 +14376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -14405,93 +14399,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="575" t="s">
+      <c r="A1" s="565" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="575"/>
-      <c r="C1" s="575"/>
-      <c r="D1" s="575"/>
+      <c r="B1" s="565"/>
+      <c r="C1" s="565"/>
+      <c r="D1" s="565"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="576" t="s">
+      <c r="A2" s="566" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="576"/>
-      <c r="C2" s="576"/>
-      <c r="D2" s="576"/>
+      <c r="B2" s="566"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="566"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="581" t="s">
+      <c r="A3" s="575" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="581"/>
-      <c r="C3" s="581"/>
-      <c r="D3" s="581"/>
-      <c r="E3" s="581"/>
-      <c r="F3" s="581"/>
-      <c r="G3" s="581"/>
-      <c r="H3" s="581"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="581"/>
-      <c r="M3" s="581"/>
-      <c r="N3" s="581"/>
+      <c r="B3" s="575"/>
+      <c r="C3" s="575"/>
+      <c r="D3" s="575"/>
+      <c r="E3" s="575"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="575"/>
+      <c r="J3" s="575"/>
+      <c r="K3" s="575"/>
+      <c r="L3" s="575"/>
+      <c r="M3" s="575"/>
+      <c r="N3" s="575"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="582" t="s">
+      <c r="A4" s="576" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="582"/>
-      <c r="C4" s="582"/>
-      <c r="D4" s="582"/>
-      <c r="E4" s="582"/>
-      <c r="F4" s="582"/>
-      <c r="G4" s="582"/>
-      <c r="H4" s="582"/>
-      <c r="I4" s="583"/>
-      <c r="J4" s="582"/>
-      <c r="K4" s="582"/>
-      <c r="L4" s="582"/>
-      <c r="M4" s="582"/>
-      <c r="N4" s="582"/>
+      <c r="B4" s="576"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="576"/>
+      <c r="E4" s="576"/>
+      <c r="F4" s="576"/>
+      <c r="G4" s="576"/>
+      <c r="H4" s="576"/>
+      <c r="I4" s="577"/>
+      <c r="J4" s="576"/>
+      <c r="K4" s="576"/>
+      <c r="L4" s="576"/>
+      <c r="M4" s="576"/>
+      <c r="N4" s="576"/>
     </row>
     <row r="5" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="584" t="s">
+      <c r="A5" s="578" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="571" t="s">
+      <c r="B5" s="581" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="566" t="s">
+      <c r="C5" s="580" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="572" t="s">
+      <c r="E5" s="582" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="572"/>
-      <c r="G5" s="572"/>
-      <c r="H5" s="572"/>
-      <c r="I5" s="573"/>
-      <c r="J5" s="574" t="s">
+      <c r="F5" s="582"/>
+      <c r="G5" s="582"/>
+      <c r="H5" s="582"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="572" t="s">
+      <c r="K5" s="582" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="572"/>
-      <c r="M5" s="572"/>
-      <c r="N5" s="566" t="s">
+      <c r="L5" s="582"/>
+      <c r="M5" s="582"/>
+      <c r="N5" s="580" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="584"/>
-      <c r="B6" s="571"/>
-      <c r="C6" s="566"/>
+      <c r="A6" s="578"/>
+      <c r="B6" s="581"/>
+      <c r="C6" s="580"/>
       <c r="D6" s="218" t="s">
         <v>41</v>
       </c>
@@ -14510,7 +14504,7 @@
       <c r="I6" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="574"/>
+      <c r="J6" s="584"/>
       <c r="K6" s="218" t="s">
         <v>45</v>
       </c>
@@ -14520,7 +14514,7 @@
       <c r="M6" s="218" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="566"/>
+      <c r="N6" s="580"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="419">
@@ -14564,16 +14558,16 @@
       <c r="N7" s="252"/>
     </row>
     <row r="8" spans="1:17" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="514">
+      <c r="A8" s="510">
         <v>656</v>
       </c>
       <c r="B8" s="569">
         <v>44053</v>
       </c>
-      <c r="C8" s="578" t="s">
+      <c r="C8" s="572" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="578" t="s">
+      <c r="D8" s="572" t="s">
         <v>178</v>
       </c>
       <c r="E8" s="431" t="s">
@@ -14606,10 +14600,10 @@
       <c r="Q8" s="196"/>
     </row>
     <row r="9" spans="1:17" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="516"/>
-      <c r="B9" s="577"/>
-      <c r="C9" s="579"/>
-      <c r="D9" s="579"/>
+      <c r="A9" s="518"/>
+      <c r="B9" s="571"/>
+      <c r="C9" s="573"/>
+      <c r="D9" s="573"/>
       <c r="E9" s="432" t="s">
         <v>172</v>
       </c>
@@ -14640,10 +14634,10 @@
       <c r="Q9" s="196"/>
     </row>
     <row r="10" spans="1:17" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="516"/>
-      <c r="B10" s="577"/>
-      <c r="C10" s="579"/>
-      <c r="D10" s="579"/>
+      <c r="A10" s="518"/>
+      <c r="B10" s="571"/>
+      <c r="C10" s="573"/>
+      <c r="D10" s="573"/>
       <c r="E10" s="432" t="s">
         <v>182</v>
       </c>
@@ -14674,10 +14668,10 @@
       <c r="Q10" s="196"/>
     </row>
     <row r="11" spans="1:17" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="516"/>
-      <c r="B11" s="577"/>
-      <c r="C11" s="579"/>
-      <c r="D11" s="579"/>
+      <c r="A11" s="518"/>
+      <c r="B11" s="571"/>
+      <c r="C11" s="573"/>
+      <c r="D11" s="573"/>
       <c r="E11" s="432" t="s">
         <v>169</v>
       </c>
@@ -14708,10 +14702,10 @@
       <c r="Q11" s="196"/>
     </row>
     <row r="12" spans="1:17" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="516"/>
-      <c r="B12" s="577"/>
-      <c r="C12" s="579"/>
-      <c r="D12" s="579"/>
+      <c r="A12" s="518"/>
+      <c r="B12" s="571"/>
+      <c r="C12" s="573"/>
+      <c r="D12" s="573"/>
       <c r="E12" s="432" t="s">
         <v>173</v>
       </c>
@@ -14742,10 +14736,10 @@
       <c r="Q12" s="196"/>
     </row>
     <row r="13" spans="1:17" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="516"/>
-      <c r="B13" s="577"/>
-      <c r="C13" s="579"/>
-      <c r="D13" s="579"/>
+      <c r="A13" s="518"/>
+      <c r="B13" s="571"/>
+      <c r="C13" s="573"/>
+      <c r="D13" s="573"/>
       <c r="E13" s="432" t="s">
         <v>175</v>
       </c>
@@ -14776,10 +14770,10 @@
       <c r="Q13" s="196"/>
     </row>
     <row r="14" spans="1:17" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="516"/>
-      <c r="B14" s="577"/>
-      <c r="C14" s="579"/>
-      <c r="D14" s="579"/>
+      <c r="A14" s="518"/>
+      <c r="B14" s="571"/>
+      <c r="C14" s="573"/>
+      <c r="D14" s="573"/>
       <c r="E14" s="432" t="s">
         <v>183</v>
       </c>
@@ -14810,10 +14804,10 @@
       <c r="Q14" s="196"/>
     </row>
     <row r="15" spans="1:17" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="515"/>
+      <c r="A15" s="511"/>
       <c r="B15" s="570"/>
-      <c r="C15" s="580"/>
-      <c r="D15" s="580"/>
+      <c r="C15" s="574"/>
+      <c r="D15" s="574"/>
       <c r="E15" s="433" t="s">
         <v>184</v>
       </c>
@@ -14884,7 +14878,7 @@
       <c r="Q16" s="196"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="514">
+      <c r="A17" s="510">
         <v>642</v>
       </c>
       <c r="B17" s="569">
@@ -14923,7 +14917,7 @@
       <c r="N17" s="133"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="515"/>
+      <c r="A18" s="511"/>
       <c r="B18" s="570"/>
       <c r="C18" s="568"/>
       <c r="D18" s="568"/>
@@ -15036,7 +15030,7 @@
       <c r="N20" s="450"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="514">
+      <c r="A21" s="510">
         <v>776</v>
       </c>
       <c r="B21" s="569">
@@ -15075,7 +15069,7 @@
       <c r="N21" s="443"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="515"/>
+      <c r="A22" s="511"/>
       <c r="B22" s="570"/>
       <c r="C22" s="568"/>
       <c r="D22" s="568"/>
@@ -15147,12 +15141,12 @@
       <c r="N23" s="135"/>
     </row>
     <row r="24" spans="1:14" s="85" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="565" t="s">
+      <c r="A24" s="579" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="565"/>
-      <c r="C24" s="565"/>
-      <c r="D24" s="565"/>
+      <c r="B24" s="579"/>
+      <c r="C24" s="579"/>
+      <c r="D24" s="579"/>
       <c r="E24" s="83"/>
       <c r="F24" s="83">
         <f>SUM(F7:F23)</f>
@@ -15246,6 +15240,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="D17:D18"/>
@@ -15259,17 +15264,6 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15892,13 +15886,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="604" t="s">
+      <c r="A1" s="625" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="604"/>
-      <c r="C1" s="604"/>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
+      <c r="B1" s="625"/>
+      <c r="C1" s="625"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
       <c r="F1" s="56"/>
       <c r="G1" s="56"/>
       <c r="H1" s="56"/>
@@ -15918,105 +15912,105 @@
       <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="605" t="s">
+      <c r="A3" s="595" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="605"/>
-      <c r="C3" s="605"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="605"/>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="605"/>
-      <c r="J3" s="605"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="605"/>
+      <c r="B3" s="595"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="595"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="595"/>
+      <c r="I3" s="595"/>
+      <c r="J3" s="595"/>
+      <c r="K3" s="595"/>
+      <c r="L3" s="595"/>
     </row>
     <row r="4" spans="1:12" s="89" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="606" t="s">
+      <c r="A4" s="594" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="610" t="s">
+      <c r="B4" s="618" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="606" t="s">
+      <c r="C4" s="594" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="606" t="s">
+      <c r="D4" s="594" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="606"/>
-      <c r="F4" s="609" t="s">
+      <c r="E4" s="594"/>
+      <c r="F4" s="593" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="609"/>
-      <c r="H4" s="609"/>
-      <c r="I4" s="609"/>
-      <c r="J4" s="609"/>
-      <c r="K4" s="609"/>
-      <c r="L4" s="609"/>
+      <c r="G4" s="593"/>
+      <c r="H4" s="593"/>
+      <c r="I4" s="593"/>
+      <c r="J4" s="593"/>
+      <c r="K4" s="593"/>
+      <c r="L4" s="593"/>
     </row>
     <row r="5" spans="1:12" s="89" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="606"/>
-      <c r="B5" s="610"/>
-      <c r="C5" s="606"/>
-      <c r="D5" s="606" t="s">
+      <c r="A5" s="594"/>
+      <c r="B5" s="618"/>
+      <c r="C5" s="594"/>
+      <c r="D5" s="594" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="606" t="s">
+      <c r="E5" s="594" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="606" t="s">
+      <c r="F5" s="594" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="606" t="s">
+      <c r="G5" s="594" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="607" t="s">
+      <c r="H5" s="597" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="607" t="s">
+      <c r="I5" s="597" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="608" t="s">
+      <c r="J5" s="596" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="608"/>
-      <c r="L5" s="607" t="s">
+      <c r="K5" s="596"/>
+      <c r="L5" s="597" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="89" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="606"/>
-      <c r="B6" s="610"/>
-      <c r="C6" s="606"/>
-      <c r="D6" s="606"/>
-      <c r="E6" s="606"/>
-      <c r="F6" s="606"/>
-      <c r="G6" s="606"/>
-      <c r="H6" s="607"/>
-      <c r="I6" s="607"/>
+      <c r="A6" s="594"/>
+      <c r="B6" s="618"/>
+      <c r="C6" s="594"/>
+      <c r="D6" s="594"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="597"/>
       <c r="J6" s="92" t="s">
         <v>83</v>
       </c>
       <c r="K6" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="607"/>
+      <c r="L6" s="597"/>
     </row>
     <row r="7" spans="1:12" s="195" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="611">
+      <c r="A7" s="610">
         <v>630</v>
       </c>
-      <c r="B7" s="614">
+      <c r="B7" s="612">
         <v>44044</v>
       </c>
-      <c r="C7" s="611" t="s">
+      <c r="C7" s="610" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="611"/>
-      <c r="E7" s="611"/>
+      <c r="D7" s="610"/>
+      <c r="E7" s="610"/>
       <c r="F7" s="238" t="s">
         <v>171</v>
       </c>
@@ -16038,11 +16032,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="195" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="612"/>
-      <c r="B8" s="615"/>
-      <c r="C8" s="612"/>
-      <c r="D8" s="612"/>
-      <c r="E8" s="612"/>
+      <c r="A8" s="619"/>
+      <c r="B8" s="620"/>
+      <c r="C8" s="619"/>
+      <c r="D8" s="619"/>
+      <c r="E8" s="619"/>
       <c r="F8" s="239" t="s">
         <v>172</v>
       </c>
@@ -16064,11 +16058,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="612"/>
-      <c r="B9" s="615"/>
-      <c r="C9" s="612"/>
-      <c r="D9" s="612"/>
-      <c r="E9" s="612"/>
+      <c r="A9" s="619"/>
+      <c r="B9" s="620"/>
+      <c r="C9" s="619"/>
+      <c r="D9" s="619"/>
+      <c r="E9" s="619"/>
       <c r="F9" s="239" t="s">
         <v>169</v>
       </c>
@@ -16090,11 +16084,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="195" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="613"/>
-      <c r="B10" s="616"/>
-      <c r="C10" s="613"/>
-      <c r="D10" s="613"/>
-      <c r="E10" s="613"/>
+      <c r="A10" s="611"/>
+      <c r="B10" s="613"/>
+      <c r="C10" s="611"/>
+      <c r="D10" s="611"/>
+      <c r="E10" s="611"/>
       <c r="F10" s="240" t="s">
         <v>173</v>
       </c>
@@ -16148,17 +16142,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="195" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="617">
+      <c r="A12" s="616">
         <v>646</v>
       </c>
-      <c r="B12" s="619">
+      <c r="B12" s="621">
         <v>44053</v>
       </c>
-      <c r="C12" s="617" t="s">
+      <c r="C12" s="616" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="621"/>
-      <c r="E12" s="617"/>
+      <c r="D12" s="623"/>
+      <c r="E12" s="616"/>
       <c r="F12" s="195" t="s">
         <v>171</v>
       </c>
@@ -16180,11 +16174,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="618"/>
-      <c r="B13" s="620"/>
-      <c r="C13" s="618"/>
-      <c r="D13" s="622"/>
-      <c r="E13" s="618"/>
+      <c r="A13" s="617"/>
+      <c r="B13" s="622"/>
+      <c r="C13" s="617"/>
+      <c r="D13" s="624"/>
+      <c r="E13" s="617"/>
       <c r="F13" s="242" t="s">
         <v>172</v>
       </c>
@@ -16206,14 +16200,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="595" t="s">
+      <c r="A14" s="600" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="596"/>
-      <c r="C14" s="596"/>
-      <c r="D14" s="596"/>
-      <c r="E14" s="596"/>
-      <c r="F14" s="597"/>
+      <c r="B14" s="601"/>
+      <c r="C14" s="601"/>
+      <c r="D14" s="601"/>
+      <c r="E14" s="601"/>
+      <c r="F14" s="602"/>
       <c r="G14" s="256">
         <f>SUM(G7:G13)</f>
         <v>11</v>
@@ -16259,107 +16253,107 @@
       <c r="L16" s="278"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="605" t="s">
+      <c r="A17" s="595" t="s">
         <v>208</v>
       </c>
-      <c r="B17" s="605"/>
-      <c r="C17" s="605"/>
-      <c r="D17" s="605"/>
-      <c r="E17" s="605"/>
-      <c r="F17" s="605"/>
-      <c r="G17" s="605"/>
-      <c r="H17" s="605"/>
-      <c r="I17" s="605"/>
-      <c r="J17" s="605"/>
-      <c r="K17" s="605"/>
-      <c r="L17" s="605"/>
+      <c r="B17" s="595"/>
+      <c r="C17" s="595"/>
+      <c r="D17" s="595"/>
+      <c r="E17" s="595"/>
+      <c r="F17" s="595"/>
+      <c r="G17" s="595"/>
+      <c r="H17" s="595"/>
+      <c r="I17" s="595"/>
+      <c r="J17" s="595"/>
+      <c r="K17" s="595"/>
+      <c r="L17" s="595"/>
     </row>
     <row r="18" spans="1:13" s="89" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="606" t="s">
+      <c r="A18" s="594" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="610" t="s">
+      <c r="B18" s="618" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="606" t="s">
+      <c r="C18" s="594" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="606" t="s">
+      <c r="D18" s="594" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="606"/>
-      <c r="F18" s="609" t="s">
+      <c r="E18" s="594"/>
+      <c r="F18" s="593" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="609"/>
-      <c r="H18" s="609"/>
-      <c r="I18" s="609"/>
-      <c r="J18" s="609"/>
-      <c r="K18" s="609"/>
-      <c r="L18" s="609"/>
+      <c r="G18" s="593"/>
+      <c r="H18" s="593"/>
+      <c r="I18" s="593"/>
+      <c r="J18" s="593"/>
+      <c r="K18" s="593"/>
+      <c r="L18" s="593"/>
     </row>
     <row r="19" spans="1:13" s="89" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="606"/>
-      <c r="B19" s="610"/>
-      <c r="C19" s="606"/>
-      <c r="D19" s="606" t="s">
+      <c r="A19" s="594"/>
+      <c r="B19" s="618"/>
+      <c r="C19" s="594"/>
+      <c r="D19" s="594" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="606" t="s">
+      <c r="E19" s="594" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="606" t="s">
+      <c r="F19" s="594" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="606" t="s">
+      <c r="G19" s="594" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="607" t="s">
+      <c r="H19" s="597" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="607" t="s">
+      <c r="I19" s="597" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="608" t="s">
+      <c r="J19" s="596" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="608"/>
-      <c r="L19" s="607" t="s">
+      <c r="K19" s="596"/>
+      <c r="L19" s="597" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="89" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="606"/>
-      <c r="B20" s="610"/>
-      <c r="C20" s="606"/>
-      <c r="D20" s="606"/>
-      <c r="E20" s="606"/>
-      <c r="F20" s="606"/>
-      <c r="G20" s="606"/>
-      <c r="H20" s="607"/>
-      <c r="I20" s="607"/>
+      <c r="A20" s="594"/>
+      <c r="B20" s="618"/>
+      <c r="C20" s="594"/>
+      <c r="D20" s="594"/>
+      <c r="E20" s="594"/>
+      <c r="F20" s="594"/>
+      <c r="G20" s="594"/>
+      <c r="H20" s="597"/>
+      <c r="I20" s="597"/>
       <c r="J20" s="244" t="s">
         <v>83</v>
       </c>
       <c r="K20" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="607"/>
+      <c r="L20" s="597"/>
     </row>
     <row r="21" spans="1:13" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="611">
+      <c r="A21" s="610">
         <v>647</v>
       </c>
-      <c r="B21" s="614">
+      <c r="B21" s="612">
         <v>44056</v>
       </c>
-      <c r="C21" s="611" t="s">
+      <c r="C21" s="610" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="623" t="s">
+      <c r="D21" s="614" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="611" t="s">
+      <c r="E21" s="610" t="s">
         <v>197</v>
       </c>
       <c r="F21" s="238" t="s">
@@ -16386,11 +16380,11 @@
       <c r="M21" s="196"/>
     </row>
     <row r="22" spans="1:13" s="195" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="613"/>
-      <c r="B22" s="616"/>
-      <c r="C22" s="613"/>
-      <c r="D22" s="624"/>
-      <c r="E22" s="613"/>
+      <c r="A22" s="611"/>
+      <c r="B22" s="613"/>
+      <c r="C22" s="611"/>
+      <c r="D22" s="615"/>
+      <c r="E22" s="611"/>
       <c r="F22" s="240" t="s">
         <v>172</v>
       </c>
@@ -16423,23 +16417,23 @@
       <c r="F23" s="258"/>
       <c r="G23" s="258"/>
       <c r="H23" s="258"/>
-      <c r="I23" s="625" t="s">
+      <c r="I23" s="599" t="s">
         <v>209</v>
       </c>
-      <c r="J23" s="625"/>
-      <c r="K23" s="625"/>
+      <c r="J23" s="599"/>
+      <c r="K23" s="599"/>
       <c r="L23" s="398">
         <v>382000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="595" t="s">
+      <c r="A24" s="600" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="596"/>
-      <c r="C24" s="596"/>
-      <c r="D24" s="596"/>
-      <c r="E24" s="597"/>
+      <c r="B24" s="601"/>
+      <c r="C24" s="601"/>
+      <c r="D24" s="601"/>
+      <c r="E24" s="602"/>
       <c r="F24" s="261"/>
       <c r="G24" s="261">
         <f>SUM(G21:G23)</f>
@@ -16472,92 +16466,92 @@
       <c r="L25" s="277"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="605" t="s">
+      <c r="A26" s="595" t="s">
         <v>266</v>
       </c>
-      <c r="B26" s="605"/>
-      <c r="C26" s="605"/>
-      <c r="D26" s="605"/>
-      <c r="E26" s="605"/>
-      <c r="F26" s="605"/>
-      <c r="G26" s="605"/>
-      <c r="H26" s="605"/>
-      <c r="I26" s="605"/>
-      <c r="J26" s="605"/>
-      <c r="K26" s="605"/>
-      <c r="L26" s="605"/>
+      <c r="B26" s="595"/>
+      <c r="C26" s="595"/>
+      <c r="D26" s="595"/>
+      <c r="E26" s="595"/>
+      <c r="F26" s="595"/>
+      <c r="G26" s="595"/>
+      <c r="H26" s="595"/>
+      <c r="I26" s="595"/>
+      <c r="J26" s="595"/>
+      <c r="K26" s="595"/>
+      <c r="L26" s="595"/>
     </row>
     <row r="27" spans="1:13" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="606" t="s">
+      <c r="A27" s="594" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="631" t="s">
+      <c r="B27" s="598" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="606" t="s">
+      <c r="C27" s="594" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="606" t="s">
+      <c r="D27" s="594" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="606"/>
-      <c r="F27" s="609" t="s">
+      <c r="E27" s="594"/>
+      <c r="F27" s="593" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="609"/>
-      <c r="H27" s="609"/>
-      <c r="I27" s="609"/>
-      <c r="J27" s="609"/>
-      <c r="K27" s="609"/>
-      <c r="L27" s="609"/>
+      <c r="G27" s="593"/>
+      <c r="H27" s="593"/>
+      <c r="I27" s="593"/>
+      <c r="J27" s="593"/>
+      <c r="K27" s="593"/>
+      <c r="L27" s="593"/>
     </row>
     <row r="28" spans="1:13" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="606"/>
-      <c r="B28" s="631"/>
-      <c r="C28" s="606"/>
-      <c r="D28" s="606" t="s">
+      <c r="A28" s="594"/>
+      <c r="B28" s="598"/>
+      <c r="C28" s="594"/>
+      <c r="D28" s="594" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="606" t="s">
+      <c r="E28" s="594" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="606" t="s">
+      <c r="F28" s="594" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="606" t="s">
+      <c r="G28" s="594" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="607" t="s">
+      <c r="H28" s="597" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="607" t="s">
+      <c r="I28" s="597" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="608" t="s">
+      <c r="J28" s="596" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="608"/>
-      <c r="L28" s="607" t="s">
+      <c r="K28" s="596"/>
+      <c r="L28" s="597" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="89" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="606"/>
-      <c r="B29" s="631"/>
-      <c r="C29" s="606"/>
-      <c r="D29" s="606"/>
-      <c r="E29" s="606"/>
-      <c r="F29" s="606"/>
-      <c r="G29" s="606"/>
-      <c r="H29" s="607"/>
-      <c r="I29" s="607"/>
+      <c r="A29" s="594"/>
+      <c r="B29" s="598"/>
+      <c r="C29" s="594"/>
+      <c r="D29" s="594"/>
+      <c r="E29" s="594"/>
+      <c r="F29" s="594"/>
+      <c r="G29" s="594"/>
+      <c r="H29" s="597"/>
+      <c r="I29" s="597"/>
       <c r="J29" s="286" t="s">
         <v>83</v>
       </c>
       <c r="K29" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="607"/>
+      <c r="L29" s="597"/>
     </row>
     <row r="30" spans="1:13" s="195" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="141">
@@ -16607,11 +16601,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="264" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="605" t="s">
+      <c r="A32" s="595" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="605"/>
-      <c r="C32" s="605"/>
+      <c r="B32" s="595"/>
+      <c r="C32" s="595"/>
       <c r="D32" s="274"/>
       <c r="E32" s="274"/>
       <c r="F32" s="274"/>
@@ -16624,225 +16618,225 @@
       <c r="A33" s="243"/>
       <c r="B33" s="243"/>
       <c r="C33" s="243"/>
-      <c r="D33" s="628" t="s">
+      <c r="D33" s="607" t="s">
         <v>211</v>
       </c>
-      <c r="E33" s="629"/>
-      <c r="F33" s="629"/>
-      <c r="G33" s="629"/>
-      <c r="H33" s="629"/>
-      <c r="I33" s="630"/>
-      <c r="J33" s="626" t="s">
+      <c r="E33" s="608"/>
+      <c r="F33" s="608"/>
+      <c r="G33" s="608"/>
+      <c r="H33" s="608"/>
+      <c r="I33" s="609"/>
+      <c r="J33" s="605" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="627"/>
+      <c r="K33" s="606"/>
       <c r="L33" s="263"/>
     </row>
     <row r="34" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="243"/>
       <c r="B34" s="243"/>
       <c r="C34" s="243"/>
-      <c r="D34" s="592" t="s">
+      <c r="D34" s="588" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="593"/>
-      <c r="F34" s="593"/>
-      <c r="G34" s="593"/>
-      <c r="H34" s="593"/>
-      <c r="I34" s="594"/>
-      <c r="J34" s="600">
+      <c r="E34" s="589"/>
+      <c r="F34" s="589"/>
+      <c r="G34" s="589"/>
+      <c r="H34" s="589"/>
+      <c r="I34" s="590"/>
+      <c r="J34" s="591">
         <v>550415</v>
       </c>
-      <c r="K34" s="601"/>
+      <c r="K34" s="592"/>
       <c r="L34" s="263"/>
     </row>
     <row r="35" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="243"/>
       <c r="B35" s="243"/>
       <c r="C35" s="243"/>
-      <c r="D35" s="592" t="s">
+      <c r="D35" s="588" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="593"/>
-      <c r="F35" s="593"/>
-      <c r="G35" s="593"/>
-      <c r="H35" s="593"/>
-      <c r="I35" s="594"/>
-      <c r="J35" s="600">
+      <c r="E35" s="589"/>
+      <c r="F35" s="589"/>
+      <c r="G35" s="589"/>
+      <c r="H35" s="589"/>
+      <c r="I35" s="590"/>
+      <c r="J35" s="591">
         <f>L14</f>
         <v>3082750.0000000005</v>
       </c>
-      <c r="K35" s="601"/>
+      <c r="K35" s="592"/>
       <c r="L35" s="263"/>
     </row>
     <row r="36" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="243"/>
       <c r="B36" s="243"/>
       <c r="C36" s="243"/>
-      <c r="D36" s="592" t="s">
+      <c r="D36" s="588" t="s">
         <v>214</v>
       </c>
-      <c r="E36" s="593"/>
-      <c r="F36" s="593"/>
-      <c r="G36" s="593"/>
-      <c r="H36" s="593"/>
-      <c r="I36" s="594"/>
-      <c r="J36" s="600">
+      <c r="E36" s="589"/>
+      <c r="F36" s="589"/>
+      <c r="G36" s="589"/>
+      <c r="H36" s="589"/>
+      <c r="I36" s="590"/>
+      <c r="J36" s="591">
         <f>L24</f>
         <v>1109750</v>
       </c>
-      <c r="K36" s="601"/>
+      <c r="K36" s="592"/>
       <c r="N36" s="265"/>
     </row>
     <row r="37" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="285"/>
       <c r="B37" s="285"/>
       <c r="C37" s="285"/>
-      <c r="D37" s="592" t="s">
+      <c r="D37" s="588" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="593"/>
-      <c r="F37" s="593"/>
-      <c r="G37" s="593"/>
-      <c r="H37" s="593"/>
-      <c r="I37" s="594"/>
-      <c r="J37" s="600">
+      <c r="E37" s="589"/>
+      <c r="F37" s="589"/>
+      <c r="G37" s="589"/>
+      <c r="H37" s="589"/>
+      <c r="I37" s="590"/>
+      <c r="J37" s="591">
         <f>L31</f>
         <v>225000</v>
       </c>
-      <c r="K37" s="601"/>
+      <c r="K37" s="592"/>
       <c r="N37" s="265"/>
     </row>
     <row r="38" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="284"/>
       <c r="B38" s="284"/>
       <c r="C38" s="284"/>
-      <c r="D38" s="592" t="s">
+      <c r="D38" s="588" t="s">
         <v>251</v>
       </c>
-      <c r="E38" s="593"/>
-      <c r="F38" s="593"/>
-      <c r="G38" s="593"/>
-      <c r="H38" s="593"/>
-      <c r="I38" s="594"/>
-      <c r="J38" s="600">
+      <c r="E38" s="589"/>
+      <c r="F38" s="589"/>
+      <c r="G38" s="589"/>
+      <c r="H38" s="589"/>
+      <c r="I38" s="590"/>
+      <c r="J38" s="591">
         <v>5000000</v>
       </c>
-      <c r="K38" s="601"/>
+      <c r="K38" s="592"/>
       <c r="N38" s="265"/>
     </row>
     <row r="39" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="284"/>
       <c r="B39" s="284"/>
       <c r="C39" s="284"/>
-      <c r="D39" s="595" t="s">
+      <c r="D39" s="600" t="s">
         <v>221</v>
       </c>
-      <c r="E39" s="596"/>
-      <c r="F39" s="596"/>
-      <c r="G39" s="596"/>
-      <c r="H39" s="596"/>
-      <c r="I39" s="597"/>
-      <c r="J39" s="602">
+      <c r="E39" s="601"/>
+      <c r="F39" s="601"/>
+      <c r="G39" s="601"/>
+      <c r="H39" s="601"/>
+      <c r="I39" s="602"/>
+      <c r="J39" s="603">
         <f>SUM(J34:K38)</f>
         <v>9967915</v>
       </c>
-      <c r="K39" s="603"/>
+      <c r="K39" s="604"/>
       <c r="N39" s="265"/>
     </row>
     <row r="40" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="243"/>
       <c r="B40" s="243"/>
       <c r="C40" s="243"/>
-      <c r="D40" s="592" t="s">
+      <c r="D40" s="588" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="593"/>
-      <c r="F40" s="593"/>
-      <c r="G40" s="593"/>
-      <c r="H40" s="593"/>
-      <c r="I40" s="594"/>
-      <c r="J40" s="600">
+      <c r="E40" s="589"/>
+      <c r="F40" s="589"/>
+      <c r="G40" s="589"/>
+      <c r="H40" s="589"/>
+      <c r="I40" s="590"/>
+      <c r="J40" s="591">
         <f>'Bảng lương'!K15</f>
         <v>5695384.615384616</v>
       </c>
-      <c r="K40" s="601"/>
+      <c r="K40" s="592"/>
       <c r="L40" s="263"/>
     </row>
     <row r="41" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="284"/>
       <c r="B41" s="284"/>
       <c r="C41" s="284"/>
-      <c r="D41" s="592" t="s">
+      <c r="D41" s="588" t="s">
         <v>246</v>
       </c>
-      <c r="E41" s="593"/>
-      <c r="F41" s="593"/>
-      <c r="G41" s="593"/>
-      <c r="H41" s="593"/>
-      <c r="I41" s="594"/>
-      <c r="J41" s="600">
+      <c r="E41" s="589"/>
+      <c r="F41" s="589"/>
+      <c r="G41" s="589"/>
+      <c r="H41" s="589"/>
+      <c r="I41" s="590"/>
+      <c r="J41" s="591">
         <f>'Chi phí văn phòng'!D9</f>
         <v>674000</v>
       </c>
-      <c r="K41" s="601"/>
+      <c r="K41" s="592"/>
       <c r="L41" s="263"/>
     </row>
     <row r="42" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="284"/>
       <c r="B42" s="284"/>
       <c r="C42" s="284"/>
-      <c r="D42" s="592" t="s">
+      <c r="D42" s="588" t="s">
         <v>247</v>
       </c>
-      <c r="E42" s="593"/>
-      <c r="F42" s="593"/>
-      <c r="G42" s="593"/>
-      <c r="H42" s="593"/>
-      <c r="I42" s="594"/>
-      <c r="J42" s="600">
+      <c r="E42" s="589"/>
+      <c r="F42" s="589"/>
+      <c r="G42" s="589"/>
+      <c r="H42" s="589"/>
+      <c r="I42" s="590"/>
+      <c r="J42" s="591">
         <f>'Chi phí văn phòng'!D21</f>
         <v>1289000</v>
       </c>
-      <c r="K42" s="601"/>
+      <c r="K42" s="592"/>
       <c r="L42" s="263"/>
     </row>
     <row r="43" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="284"/>
       <c r="B43" s="284"/>
       <c r="C43" s="284"/>
-      <c r="D43" s="595" t="s">
+      <c r="D43" s="600" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="596"/>
-      <c r="F43" s="596"/>
-      <c r="G43" s="596"/>
-      <c r="H43" s="596"/>
-      <c r="I43" s="597"/>
-      <c r="J43" s="602">
+      <c r="E43" s="601"/>
+      <c r="F43" s="601"/>
+      <c r="G43" s="601"/>
+      <c r="H43" s="601"/>
+      <c r="I43" s="602"/>
+      <c r="J43" s="603">
         <f>SUM(J40:K42)</f>
         <v>7658384.615384616</v>
       </c>
-      <c r="K43" s="603"/>
+      <c r="K43" s="604"/>
       <c r="L43" s="263"/>
     </row>
     <row r="44" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="243"/>
       <c r="B44" s="243"/>
       <c r="C44" s="243"/>
-      <c r="D44" s="598" t="s">
+      <c r="D44" s="630" t="s">
         <v>250</v>
       </c>
-      <c r="E44" s="598"/>
-      <c r="F44" s="598"/>
-      <c r="G44" s="598"/>
-      <c r="H44" s="598"/>
-      <c r="I44" s="598"/>
-      <c r="J44" s="599">
+      <c r="E44" s="630"/>
+      <c r="F44" s="630"/>
+      <c r="G44" s="630"/>
+      <c r="H44" s="630"/>
+      <c r="I44" s="630"/>
+      <c r="J44" s="631">
         <f>J39-J43</f>
         <v>2309530.384615384</v>
       </c>
-      <c r="K44" s="599"/>
+      <c r="K44" s="631"/>
     </row>
     <row r="45" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="284"/>
@@ -16852,14 +16846,14 @@
       <c r="E45" s="266"/>
       <c r="F45" s="266"/>
       <c r="G45" s="266"/>
-      <c r="H45" s="588" t="s">
+      <c r="H45" s="626" t="s">
         <v>248</v>
       </c>
-      <c r="I45" s="588"/>
-      <c r="J45" s="589">
+      <c r="I45" s="626"/>
+      <c r="J45" s="627">
         <v>2500000</v>
       </c>
-      <c r="K45" s="589"/>
+      <c r="K45" s="627"/>
     </row>
     <row r="46" spans="1:14" s="264" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="280"/>
@@ -16869,49 +16863,95 @@
       <c r="E46" s="266"/>
       <c r="F46" s="266"/>
       <c r="G46" s="266"/>
-      <c r="H46" s="591" t="s">
+      <c r="H46" s="629" t="s">
         <v>249</v>
       </c>
-      <c r="I46" s="591"/>
-      <c r="J46" s="590">
+      <c r="I46" s="629"/>
+      <c r="J46" s="628">
         <f>J44+J45</f>
         <v>4809530.384615384</v>
       </c>
-      <c r="K46" s="590"/>
+      <c r="K46" s="628"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="74"/>
-      <c r="B47" s="605" t="s">
+      <c r="B47" s="595" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="605"/>
-      <c r="D47" s="605"/>
+      <c r="C47" s="595"/>
+      <c r="D47" s="595"/>
       <c r="E47" s="74"/>
       <c r="F47" s="74"/>
       <c r="G47" s="74"/>
       <c r="H47" s="74"/>
-      <c r="I47" s="605" t="s">
+      <c r="I47" s="595" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="605"/>
+      <c r="J47" s="595"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A32:C32"/>
@@ -16928,67 +16968,21 @@
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="D34:I34"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <pageMargins left="0.91" right="0.2" top="0.37" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -17012,13 +17006,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="604" t="s">
+      <c r="B1" s="625" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="604"/>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
+      <c r="C1" s="625"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
       <c r="G1" s="56"/>
       <c r="H1" s="56"/>
       <c r="I1" s="56"/>
@@ -17038,11 +17032,11 @@
       <c r="J2" s="56"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="581" t="s">
+      <c r="B4" s="575" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="581"/>
-      <c r="D4" s="581"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="575"/>
       <c r="E4" s="154"/>
       <c r="F4" s="154"/>
     </row>
@@ -17364,13 +17358,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="604" t="s">
+      <c r="A1" s="625" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="604"/>
-      <c r="C1" s="604"/>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
+      <c r="B1" s="625"/>
+      <c r="C1" s="625"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
       <c r="F1" s="56"/>
       <c r="G1" s="56"/>
       <c r="H1" s="56"/>
@@ -17444,34 +17438,34 @@
       <c r="H8" s="640"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="592" t="s">
+      <c r="A9" s="588" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="593"/>
-      <c r="C9" s="593"/>
-      <c r="D9" s="593"/>
-      <c r="E9" s="593"/>
-      <c r="F9" s="594"/>
-      <c r="G9" s="600">
+      <c r="B9" s="589"/>
+      <c r="C9" s="589"/>
+      <c r="D9" s="589"/>
+      <c r="E9" s="589"/>
+      <c r="F9" s="590"/>
+      <c r="G9" s="591">
         <f>'Bảng lương'!K12</f>
         <v>7135000</v>
       </c>
-      <c r="H9" s="601"/>
+      <c r="H9" s="592"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="598" t="s">
+      <c r="A10" s="630" t="s">
         <v>227</v>
       </c>
-      <c r="B10" s="598"/>
-      <c r="C10" s="598"/>
-      <c r="D10" s="598"/>
-      <c r="E10" s="598"/>
-      <c r="F10" s="598"/>
-      <c r="G10" s="599">
+      <c r="B10" s="630"/>
+      <c r="C10" s="630"/>
+      <c r="D10" s="630"/>
+      <c r="E10" s="630"/>
+      <c r="F10" s="630"/>
+      <c r="G10" s="631">
         <f>SUM(G7:H9)</f>
         <v>9935000</v>
       </c>
-      <c r="H10" s="599"/>
+      <c r="H10" s="631"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -18027,16 +18021,16 @@
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
       <c r="E1" s="94"/>
-      <c r="Z1" s="662" t="s">
+      <c r="Z1" s="649" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="663"/>
-      <c r="AB1" s="663"/>
-      <c r="AC1" s="663"/>
-      <c r="AD1" s="663"/>
-      <c r="AE1" s="663"/>
-      <c r="AF1" s="663"/>
-      <c r="AG1" s="664"/>
+      <c r="AA1" s="650"/>
+      <c r="AB1" s="650"/>
+      <c r="AC1" s="650"/>
+      <c r="AD1" s="650"/>
+      <c r="AE1" s="650"/>
+      <c r="AF1" s="650"/>
+      <c r="AG1" s="651"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
@@ -18046,18 +18040,18 @@
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
       <c r="E2" s="98"/>
-      <c r="Z2" s="645" t="s">
+      <c r="Z2" s="644" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" s="646"/>
-      <c r="AB2" s="646"/>
-      <c r="AC2" s="646"/>
-      <c r="AD2" s="646"/>
-      <c r="AE2" s="647"/>
-      <c r="AF2" s="648" t="s">
+      <c r="AA2" s="645"/>
+      <c r="AB2" s="645"/>
+      <c r="AC2" s="645"/>
+      <c r="AD2" s="645"/>
+      <c r="AE2" s="646"/>
+      <c r="AF2" s="647" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="649"/>
+      <c r="AG2" s="648"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
@@ -18067,18 +18061,18 @@
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
-      <c r="Z3" s="645" t="s">
+      <c r="Z3" s="644" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="646"/>
-      <c r="AB3" s="646"/>
-      <c r="AC3" s="646"/>
-      <c r="AD3" s="646"/>
-      <c r="AE3" s="647"/>
-      <c r="AF3" s="648" t="s">
+      <c r="AA3" s="645"/>
+      <c r="AB3" s="645"/>
+      <c r="AC3" s="645"/>
+      <c r="AD3" s="645"/>
+      <c r="AE3" s="646"/>
+      <c r="AF3" s="647" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="649"/>
+      <c r="AG3" s="648"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="97" t="s">
@@ -18091,18 +18085,18 @@
       <c r="T4" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="645" t="s">
+      <c r="Z4" s="644" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="646"/>
-      <c r="AB4" s="646"/>
-      <c r="AC4" s="646"/>
-      <c r="AD4" s="646"/>
-      <c r="AE4" s="647"/>
-      <c r="AF4" s="648" t="s">
+      <c r="AA4" s="645"/>
+      <c r="AB4" s="645"/>
+      <c r="AC4" s="645"/>
+      <c r="AD4" s="645"/>
+      <c r="AE4" s="646"/>
+      <c r="AF4" s="647" t="s">
         <v>92</v>
       </c>
-      <c r="AG4" s="649"/>
+      <c r="AG4" s="648"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="97" t="s">
@@ -18112,18 +18106,18 @@
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
       <c r="E5" s="70"/>
-      <c r="Z5" s="645" t="s">
+      <c r="Z5" s="644" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" s="646"/>
-      <c r="AB5" s="646"/>
-      <c r="AC5" s="646"/>
-      <c r="AD5" s="646"/>
-      <c r="AE5" s="647"/>
-      <c r="AF5" s="648" t="s">
+      <c r="AA5" s="645"/>
+      <c r="AB5" s="645"/>
+      <c r="AC5" s="645"/>
+      <c r="AD5" s="645"/>
+      <c r="AE5" s="646"/>
+      <c r="AF5" s="647" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" s="649"/>
+      <c r="AG5" s="648"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="99"/>
@@ -18133,93 +18127,93 @@
       <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:40" s="102" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="650" t="s">
+      <c r="A7" s="653" t="s">
         <v>285</v>
       </c>
-      <c r="B7" s="650"/>
-      <c r="C7" s="650"/>
-      <c r="D7" s="650"/>
-      <c r="E7" s="650"/>
-      <c r="F7" s="650"/>
-      <c r="G7" s="650"/>
-      <c r="H7" s="650"/>
-      <c r="I7" s="650"/>
-      <c r="J7" s="650"/>
-      <c r="K7" s="650"/>
-      <c r="L7" s="650"/>
-      <c r="M7" s="650"/>
-      <c r="N7" s="650"/>
-      <c r="O7" s="650"/>
-      <c r="P7" s="650"/>
-      <c r="Q7" s="650"/>
-      <c r="R7" s="650"/>
-      <c r="S7" s="650"/>
-      <c r="T7" s="650"/>
-      <c r="U7" s="650"/>
-      <c r="V7" s="650"/>
-      <c r="W7" s="650"/>
-      <c r="X7" s="650"/>
-      <c r="Y7" s="650"/>
-      <c r="Z7" s="650"/>
-      <c r="AA7" s="650"/>
-      <c r="AB7" s="650"/>
-      <c r="AC7" s="650"/>
-      <c r="AD7" s="650"/>
-      <c r="AE7" s="650"/>
-      <c r="AF7" s="650"/>
-      <c r="AG7" s="650"/>
-      <c r="AH7" s="650"/>
-      <c r="AI7" s="650"/>
-      <c r="AJ7" s="650"/>
-      <c r="AK7" s="650"/>
-      <c r="AL7" s="650"/>
-      <c r="AM7" s="650"/>
+      <c r="B7" s="653"/>
+      <c r="C7" s="653"/>
+      <c r="D7" s="653"/>
+      <c r="E7" s="653"/>
+      <c r="F7" s="653"/>
+      <c r="G7" s="653"/>
+      <c r="H7" s="653"/>
+      <c r="I7" s="653"/>
+      <c r="J7" s="653"/>
+      <c r="K7" s="653"/>
+      <c r="L7" s="653"/>
+      <c r="M7" s="653"/>
+      <c r="N7" s="653"/>
+      <c r="O7" s="653"/>
+      <c r="P7" s="653"/>
+      <c r="Q7" s="653"/>
+      <c r="R7" s="653"/>
+      <c r="S7" s="653"/>
+      <c r="T7" s="653"/>
+      <c r="U7" s="653"/>
+      <c r="V7" s="653"/>
+      <c r="W7" s="653"/>
+      <c r="X7" s="653"/>
+      <c r="Y7" s="653"/>
+      <c r="Z7" s="653"/>
+      <c r="AA7" s="653"/>
+      <c r="AB7" s="653"/>
+      <c r="AC7" s="653"/>
+      <c r="AD7" s="653"/>
+      <c r="AE7" s="653"/>
+      <c r="AF7" s="653"/>
+      <c r="AG7" s="653"/>
+      <c r="AH7" s="653"/>
+      <c r="AI7" s="653"/>
+      <c r="AJ7" s="653"/>
+      <c r="AK7" s="653"/>
+      <c r="AL7" s="653"/>
+      <c r="AM7" s="653"/>
       <c r="AN7" s="101"/>
     </row>
     <row r="9" spans="1:40" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="651" t="s">
+      <c r="A9" s="654" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="651" t="s">
+      <c r="B9" s="654" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="651" t="s">
+      <c r="C9" s="654" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="654" t="s">
+      <c r="D9" s="657" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="655"/>
-      <c r="F9" s="655"/>
-      <c r="G9" s="655"/>
-      <c r="H9" s="655"/>
-      <c r="I9" s="655"/>
-      <c r="J9" s="655"/>
-      <c r="K9" s="655"/>
-      <c r="L9" s="655"/>
-      <c r="M9" s="655"/>
-      <c r="N9" s="655"/>
-      <c r="O9" s="655"/>
-      <c r="P9" s="655"/>
-      <c r="Q9" s="655"/>
-      <c r="R9" s="655"/>
-      <c r="S9" s="655"/>
-      <c r="T9" s="655"/>
-      <c r="U9" s="655"/>
-      <c r="V9" s="655"/>
-      <c r="W9" s="655"/>
-      <c r="X9" s="655"/>
-      <c r="Y9" s="655"/>
-      <c r="Z9" s="655"/>
-      <c r="AA9" s="655"/>
-      <c r="AB9" s="655"/>
-      <c r="AC9" s="655"/>
-      <c r="AD9" s="655"/>
-      <c r="AE9" s="655"/>
-      <c r="AF9" s="655"/>
-      <c r="AG9" s="655"/>
-      <c r="AH9" s="656"/>
-      <c r="AI9" s="657" t="s">
+      <c r="E9" s="658"/>
+      <c r="F9" s="658"/>
+      <c r="G9" s="658"/>
+      <c r="H9" s="658"/>
+      <c r="I9" s="658"/>
+      <c r="J9" s="658"/>
+      <c r="K9" s="658"/>
+      <c r="L9" s="658"/>
+      <c r="M9" s="658"/>
+      <c r="N9" s="658"/>
+      <c r="O9" s="658"/>
+      <c r="P9" s="658"/>
+      <c r="Q9" s="658"/>
+      <c r="R9" s="658"/>
+      <c r="S9" s="658"/>
+      <c r="T9" s="658"/>
+      <c r="U9" s="658"/>
+      <c r="V9" s="658"/>
+      <c r="W9" s="658"/>
+      <c r="X9" s="658"/>
+      <c r="Y9" s="658"/>
+      <c r="Z9" s="658"/>
+      <c r="AA9" s="658"/>
+      <c r="AB9" s="658"/>
+      <c r="AC9" s="658"/>
+      <c r="AD9" s="658"/>
+      <c r="AE9" s="658"/>
+      <c r="AF9" s="658"/>
+      <c r="AG9" s="658"/>
+      <c r="AH9" s="659"/>
+      <c r="AI9" s="660" t="s">
         <v>100</v>
       </c>
       <c r="AJ9" s="103"/>
@@ -18229,9 +18223,9 @@
       <c r="AN9" s="106"/>
     </row>
     <row r="10" spans="1:40" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="652"/>
-      <c r="B10" s="652"/>
-      <c r="C10" s="652"/>
+      <c r="A10" s="655"/>
+      <c r="B10" s="655"/>
+      <c r="C10" s="655"/>
       <c r="D10" s="108">
         <v>1</v>
       </c>
@@ -18325,7 +18319,7 @@
       <c r="AH10" s="108">
         <v>31</v>
       </c>
-      <c r="AI10" s="657"/>
+      <c r="AI10" s="660"/>
       <c r="AJ10" s="109"/>
       <c r="AK10" s="105"/>
       <c r="AL10" s="105"/>
@@ -18333,9 +18327,9 @@
       <c r="AN10" s="106"/>
     </row>
     <row r="11" spans="1:40" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="653"/>
-      <c r="B11" s="653"/>
-      <c r="C11" s="653"/>
+      <c r="A11" s="656"/>
+      <c r="B11" s="656"/>
+      <c r="C11" s="656"/>
       <c r="D11" s="108" t="s">
         <v>101</v>
       </c>
@@ -18429,7 +18423,7 @@
       <c r="AH11" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="AI11" s="657"/>
+      <c r="AI11" s="660"/>
       <c r="AJ11" s="113"/>
       <c r="AN11" s="115"/>
     </row>
@@ -18830,10 +18824,10 @@
       <c r="AN15" s="115"/>
     </row>
     <row r="16" spans="1:40" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="658" t="s">
+      <c r="A16" s="661" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="659"/>
+      <c r="B16" s="662"/>
       <c r="C16" s="117"/>
       <c r="D16" s="117"/>
       <c r="E16" s="118"/>
@@ -18885,12 +18879,12 @@
       <c r="N18" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="AB18" s="660" t="s">
+      <c r="AB18" s="663" t="s">
         <v>392</v>
       </c>
-      <c r="AC18" s="660"/>
-      <c r="AD18" s="660"/>
-      <c r="AE18" s="660"/>
+      <c r="AC18" s="663"/>
+      <c r="AD18" s="663"/>
+      <c r="AE18" s="663"/>
     </row>
     <row r="19" spans="1:40" s="402" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B19" s="403" t="s">
@@ -18902,12 +18896,12 @@
       <c r="N19" s="403" t="s">
         <v>393</v>
       </c>
-      <c r="AB19" s="661" t="s">
+      <c r="AB19" s="664" t="s">
         <v>393</v>
       </c>
-      <c r="AC19" s="661"/>
-      <c r="AD19" s="661"/>
-      <c r="AE19" s="661"/>
+      <c r="AC19" s="664"/>
+      <c r="AD19" s="664"/>
+      <c r="AE19" s="664"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="122"/>
@@ -18940,131 +18934,131 @@
       <c r="AN33" s="125"/>
     </row>
     <row r="34" spans="3:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="644"/>
-      <c r="H34" s="644"/>
-      <c r="I34" s="644"/>
-      <c r="J34" s="644"/>
-      <c r="K34" s="644"/>
-      <c r="L34" s="644"/>
-      <c r="M34" s="644"/>
-      <c r="N34" s="644"/>
-      <c r="O34" s="644"/>
-      <c r="P34" s="644"/>
-      <c r="Q34" s="644"/>
-      <c r="R34" s="644"/>
-      <c r="S34" s="644"/>
-      <c r="T34" s="644"/>
-      <c r="U34" s="644"/>
-      <c r="V34" s="644"/>
-      <c r="W34" s="644"/>
-      <c r="X34" s="644"/>
+      <c r="G34" s="652"/>
+      <c r="H34" s="652"/>
+      <c r="I34" s="652"/>
+      <c r="J34" s="652"/>
+      <c r="K34" s="652"/>
+      <c r="L34" s="652"/>
+      <c r="M34" s="652"/>
+      <c r="N34" s="652"/>
+      <c r="O34" s="652"/>
+      <c r="P34" s="652"/>
+      <c r="Q34" s="652"/>
+      <c r="R34" s="652"/>
+      <c r="S34" s="652"/>
+      <c r="T34" s="652"/>
+      <c r="U34" s="652"/>
+      <c r="V34" s="652"/>
+      <c r="W34" s="652"/>
+      <c r="X34" s="652"/>
       <c r="AN34" s="125"/>
     </row>
     <row r="35" spans="3:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="644"/>
-      <c r="H35" s="644"/>
-      <c r="I35" s="644"/>
-      <c r="J35" s="644"/>
-      <c r="K35" s="644"/>
-      <c r="L35" s="644"/>
-      <c r="M35" s="644"/>
-      <c r="N35" s="644"/>
-      <c r="O35" s="644"/>
-      <c r="P35" s="644"/>
-      <c r="Q35" s="644"/>
-      <c r="R35" s="644"/>
-      <c r="S35" s="644"/>
-      <c r="T35" s="644"/>
-      <c r="U35" s="644"/>
-      <c r="V35" s="644"/>
-      <c r="W35" s="644"/>
-      <c r="X35" s="644"/>
+      <c r="G35" s="652"/>
+      <c r="H35" s="652"/>
+      <c r="I35" s="652"/>
+      <c r="J35" s="652"/>
+      <c r="K35" s="652"/>
+      <c r="L35" s="652"/>
+      <c r="M35" s="652"/>
+      <c r="N35" s="652"/>
+      <c r="O35" s="652"/>
+      <c r="P35" s="652"/>
+      <c r="Q35" s="652"/>
+      <c r="R35" s="652"/>
+      <c r="S35" s="652"/>
+      <c r="T35" s="652"/>
+      <c r="U35" s="652"/>
+      <c r="V35" s="652"/>
+      <c r="W35" s="652"/>
+      <c r="X35" s="652"/>
       <c r="AN35" s="125"/>
     </row>
     <row r="36" spans="3:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="644"/>
-      <c r="H36" s="644"/>
-      <c r="I36" s="644"/>
-      <c r="J36" s="644"/>
-      <c r="K36" s="644"/>
-      <c r="L36" s="644"/>
-      <c r="M36" s="644"/>
-      <c r="N36" s="644"/>
-      <c r="O36" s="644"/>
-      <c r="P36" s="644"/>
-      <c r="Q36" s="644"/>
-      <c r="R36" s="644"/>
-      <c r="S36" s="644"/>
-      <c r="T36" s="644"/>
-      <c r="U36" s="644"/>
-      <c r="V36" s="644"/>
-      <c r="W36" s="644"/>
-      <c r="X36" s="644"/>
+      <c r="G36" s="652"/>
+      <c r="H36" s="652"/>
+      <c r="I36" s="652"/>
+      <c r="J36" s="652"/>
+      <c r="K36" s="652"/>
+      <c r="L36" s="652"/>
+      <c r="M36" s="652"/>
+      <c r="N36" s="652"/>
+      <c r="O36" s="652"/>
+      <c r="P36" s="652"/>
+      <c r="Q36" s="652"/>
+      <c r="R36" s="652"/>
+      <c r="S36" s="652"/>
+      <c r="T36" s="652"/>
+      <c r="U36" s="652"/>
+      <c r="V36" s="652"/>
+      <c r="W36" s="652"/>
+      <c r="X36" s="652"/>
       <c r="AN36" s="125"/>
     </row>
     <row r="37" spans="3:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="644"/>
-      <c r="H37" s="644"/>
-      <c r="I37" s="644"/>
-      <c r="J37" s="644"/>
-      <c r="K37" s="644"/>
-      <c r="L37" s="644"/>
-      <c r="M37" s="644"/>
-      <c r="N37" s="644"/>
-      <c r="O37" s="644"/>
-      <c r="P37" s="644"/>
-      <c r="Q37" s="644"/>
-      <c r="R37" s="644"/>
-      <c r="S37" s="644"/>
-      <c r="T37" s="644"/>
-      <c r="U37" s="644"/>
-      <c r="V37" s="644"/>
-      <c r="W37" s="644"/>
-      <c r="X37" s="644"/>
+      <c r="G37" s="652"/>
+      <c r="H37" s="652"/>
+      <c r="I37" s="652"/>
+      <c r="J37" s="652"/>
+      <c r="K37" s="652"/>
+      <c r="L37" s="652"/>
+      <c r="M37" s="652"/>
+      <c r="N37" s="652"/>
+      <c r="O37" s="652"/>
+      <c r="P37" s="652"/>
+      <c r="Q37" s="652"/>
+      <c r="R37" s="652"/>
+      <c r="S37" s="652"/>
+      <c r="T37" s="652"/>
+      <c r="U37" s="652"/>
+      <c r="V37" s="652"/>
+      <c r="W37" s="652"/>
+      <c r="X37" s="652"/>
       <c r="AN37" s="125"/>
     </row>
     <row r="38" spans="3:40" s="124" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="644"/>
-      <c r="H38" s="644"/>
-      <c r="I38" s="644"/>
-      <c r="J38" s="644"/>
-      <c r="K38" s="644"/>
-      <c r="L38" s="644"/>
-      <c r="M38" s="644"/>
-      <c r="N38" s="644"/>
-      <c r="O38" s="644"/>
-      <c r="P38" s="644"/>
-      <c r="Q38" s="644"/>
-      <c r="R38" s="644"/>
-      <c r="S38" s="644"/>
-      <c r="T38" s="644"/>
-      <c r="U38" s="644"/>
-      <c r="V38" s="644"/>
-      <c r="W38" s="644"/>
-      <c r="X38" s="644"/>
+      <c r="G38" s="652"/>
+      <c r="H38" s="652"/>
+      <c r="I38" s="652"/>
+      <c r="J38" s="652"/>
+      <c r="K38" s="652"/>
+      <c r="L38" s="652"/>
+      <c r="M38" s="652"/>
+      <c r="N38" s="652"/>
+      <c r="O38" s="652"/>
+      <c r="P38" s="652"/>
+      <c r="Q38" s="652"/>
+      <c r="R38" s="652"/>
+      <c r="S38" s="652"/>
+      <c r="T38" s="652"/>
+      <c r="U38" s="652"/>
+      <c r="V38" s="652"/>
+      <c r="W38" s="652"/>
+      <c r="X38" s="652"/>
       <c r="AN38" s="125"/>
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C39" s="95"/>
       <c r="D39" s="95"/>
-      <c r="G39" s="644"/>
-      <c r="H39" s="644"/>
-      <c r="I39" s="644"/>
-      <c r="J39" s="644"/>
-      <c r="K39" s="644"/>
-      <c r="L39" s="644"/>
-      <c r="M39" s="644"/>
-      <c r="N39" s="644"/>
-      <c r="O39" s="644"/>
-      <c r="P39" s="644"/>
-      <c r="Q39" s="644"/>
-      <c r="R39" s="644"/>
-      <c r="S39" s="644"/>
-      <c r="T39" s="644"/>
-      <c r="U39" s="644"/>
-      <c r="V39" s="644"/>
-      <c r="W39" s="644"/>
-      <c r="X39" s="644"/>
+      <c r="G39" s="652"/>
+      <c r="H39" s="652"/>
+      <c r="I39" s="652"/>
+      <c r="J39" s="652"/>
+      <c r="K39" s="652"/>
+      <c r="L39" s="652"/>
+      <c r="M39" s="652"/>
+      <c r="N39" s="652"/>
+      <c r="O39" s="652"/>
+      <c r="P39" s="652"/>
+      <c r="Q39" s="652"/>
+      <c r="R39" s="652"/>
+      <c r="S39" s="652"/>
+      <c r="T39" s="652"/>
+      <c r="U39" s="652"/>
+      <c r="V39" s="652"/>
+      <c r="W39" s="652"/>
+      <c r="X39" s="652"/>
       <c r="AN39" s="95"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
@@ -19074,13 +19068,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="G34:X39"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -19093,6 +19080,13 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="AB18:AE18"/>
     <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -19947,40 +19941,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="168" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="673" t="s">
+      <c r="A1" s="665" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="673"/>
-      <c r="C1" s="673"/>
-      <c r="D1" s="673"/>
+      <c r="B1" s="665"/>
+      <c r="C1" s="665"/>
+      <c r="D1" s="665"/>
       <c r="E1" s="167"/>
-      <c r="F1" s="674" t="s">
+      <c r="F1" s="666" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="674"/>
-      <c r="H1" s="674"/>
-      <c r="I1" s="674"/>
-      <c r="J1" s="674"/>
-      <c r="K1" s="674"/>
-      <c r="L1" s="674"/>
+      <c r="G1" s="666"/>
+      <c r="H1" s="666"/>
+      <c r="I1" s="666"/>
+      <c r="J1" s="666"/>
+      <c r="K1" s="666"/>
+      <c r="L1" s="666"/>
     </row>
     <row r="2" spans="1:16" s="168" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="675" t="s">
+      <c r="A2" s="667" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="675"/>
-      <c r="C2" s="675"/>
-      <c r="D2" s="675"/>
+      <c r="B2" s="667"/>
+      <c r="C2" s="667"/>
+      <c r="D2" s="667"/>
       <c r="E2" s="167"/>
-      <c r="F2" s="676" t="s">
+      <c r="F2" s="668" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="676"/>
-      <c r="H2" s="676"/>
-      <c r="I2" s="676"/>
-      <c r="J2" s="676"/>
-      <c r="K2" s="676"/>
-      <c r="L2" s="676"/>
+      <c r="G2" s="668"/>
+      <c r="H2" s="668"/>
+      <c r="I2" s="668"/>
+      <c r="J2" s="668"/>
+      <c r="K2" s="668"/>
+      <c r="L2" s="668"/>
     </row>
     <row r="3" spans="1:16" s="168" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="169"/>
@@ -19994,45 +19988,45 @@
       <c r="J3" s="170"/>
     </row>
     <row r="4" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="665" t="s">
+      <c r="A4" s="669" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="665"/>
-      <c r="C4" s="665"/>
-      <c r="D4" s="665"/>
-      <c r="E4" s="665"/>
-      <c r="F4" s="665"/>
-      <c r="G4" s="665"/>
-      <c r="H4" s="665"/>
-      <c r="I4" s="665"/>
-      <c r="J4" s="665"/>
-      <c r="K4" s="665"/>
-      <c r="L4" s="665"/>
-      <c r="M4" s="665"/>
+      <c r="B4" s="669"/>
+      <c r="C4" s="669"/>
+      <c r="D4" s="669"/>
+      <c r="E4" s="669"/>
+      <c r="F4" s="669"/>
+      <c r="G4" s="669"/>
+      <c r="H4" s="669"/>
+      <c r="I4" s="669"/>
+      <c r="J4" s="669"/>
+      <c r="K4" s="669"/>
+      <c r="L4" s="669"/>
+      <c r="M4" s="669"/>
     </row>
     <row r="5" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="665" t="s">
+      <c r="A5" s="669" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="665"/>
-      <c r="C5" s="665"/>
-      <c r="D5" s="665"/>
-      <c r="E5" s="665"/>
-      <c r="F5" s="665"/>
-      <c r="G5" s="665"/>
-      <c r="H5" s="665"/>
-      <c r="I5" s="665"/>
-      <c r="J5" s="665"/>
-      <c r="K5" s="665"/>
-      <c r="L5" s="665"/>
-      <c r="M5" s="665"/>
+      <c r="B5" s="669"/>
+      <c r="C5" s="669"/>
+      <c r="D5" s="669"/>
+      <c r="E5" s="669"/>
+      <c r="F5" s="669"/>
+      <c r="G5" s="669"/>
+      <c r="H5" s="669"/>
+      <c r="I5" s="669"/>
+      <c r="J5" s="669"/>
+      <c r="K5" s="669"/>
+      <c r="L5" s="669"/>
+      <c r="M5" s="669"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="666" t="s">
+      <c r="K6" s="670" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="666"/>
-      <c r="M6" s="666"/>
+      <c r="L6" s="670"/>
+      <c r="M6" s="670"/>
     </row>
     <row r="7" spans="1:16" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="407" t="s">
@@ -20103,13 +20097,13 @@
       <c r="M8" s="407"/>
     </row>
     <row r="9" spans="1:16" s="44" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="670" t="s">
+      <c r="A9" s="674" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="671"/>
-      <c r="C9" s="671"/>
-      <c r="D9" s="671"/>
-      <c r="E9" s="672"/>
+      <c r="B9" s="675"/>
+      <c r="C9" s="675"/>
+      <c r="D9" s="675"/>
+      <c r="E9" s="676"/>
       <c r="F9" s="174">
         <f>SUM(F10:F12)</f>
         <v>27000000</v>
@@ -20246,13 +20240,13 @@
       <c r="P12" s="90"/>
     </row>
     <row r="13" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="667" t="s">
+      <c r="A13" s="671" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="668"/>
-      <c r="C13" s="668"/>
-      <c r="D13" s="668"/>
-      <c r="E13" s="669"/>
+      <c r="B13" s="672"/>
+      <c r="C13" s="672"/>
+      <c r="D13" s="672"/>
+      <c r="E13" s="673"/>
       <c r="F13" s="149">
         <f>SUM(F14:F15)</f>
         <v>7615384.615384616</v>
@@ -20343,11 +20337,11 @@
       <c r="M15" s="49"/>
     </row>
     <row r="16" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="667" t="s">
+      <c r="A16" s="671" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="668"/>
-      <c r="C16" s="669"/>
+      <c r="B16" s="672"/>
+      <c r="C16" s="673"/>
       <c r="D16" s="174"/>
       <c r="E16" s="175"/>
       <c r="F16" s="174">
@@ -20378,14 +20372,14 @@
       <c r="M16" s="173"/>
     </row>
     <row r="18" spans="2:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="665"/>
-      <c r="C18" s="665"/>
-      <c r="D18" s="665"/>
+      <c r="B18" s="669"/>
+      <c r="C18" s="669"/>
+      <c r="D18" s="669"/>
       <c r="E18" s="150"/>
-      <c r="I18" s="665"/>
-      <c r="J18" s="665"/>
-      <c r="K18" s="665"/>
-      <c r="L18" s="665"/>
+      <c r="I18" s="669"/>
+      <c r="J18" s="669"/>
+      <c r="K18" s="669"/>
+      <c r="L18" s="669"/>
     </row>
     <row r="19" spans="2:12" s="401" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" s="205" t="s">
@@ -20436,11 +20430,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="B18:D18"/>
@@ -20448,6 +20437,11 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
